--- a/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.55993819104923</v>
+        <v>14.73977855033865</v>
       </c>
       <c r="C2">
-        <v>9.758572898485095</v>
+        <v>4.979090324158706</v>
       </c>
       <c r="D2">
-        <v>5.899005851427773</v>
+        <v>5.946634274053439</v>
       </c>
       <c r="E2">
-        <v>5.409432305930916</v>
+        <v>5.543910652472682</v>
       </c>
       <c r="F2">
-        <v>67.81861007548432</v>
+        <v>69.99997475314434</v>
       </c>
       <c r="G2">
-        <v>2.164401966764452</v>
+        <v>2.204795613031072</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.053591374987088</v>
+        <v>7.613746810632517</v>
       </c>
       <c r="K2">
-        <v>16.22851833315077</v>
+        <v>11.4755787941221</v>
       </c>
       <c r="L2">
-        <v>6.140439399647074</v>
+        <v>5.577499336827699</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54497825506948</v>
+        <v>14.20593490434878</v>
       </c>
       <c r="C3">
-        <v>9.017479164480534</v>
+        <v>4.648790208896861</v>
       </c>
       <c r="D3">
-        <v>5.608856074620252</v>
+        <v>5.689388584349653</v>
       </c>
       <c r="E3">
-        <v>5.452891071072774</v>
+        <v>5.595641800416867</v>
       </c>
       <c r="F3">
-        <v>64.87902354326643</v>
+        <v>67.20514658578084</v>
       </c>
       <c r="G3">
-        <v>2.17818724780803</v>
+        <v>2.215733762459319</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.016440227882076</v>
+        <v>7.551824230532532</v>
       </c>
       <c r="K3">
-        <v>15.44456969125054</v>
+        <v>11.11576712905101</v>
       </c>
       <c r="L3">
-        <v>6.137425834011446</v>
+        <v>5.61908123908086</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.92241213026547</v>
+        <v>13.88572779375094</v>
       </c>
       <c r="C4">
-        <v>8.542978183093574</v>
+        <v>4.437813406891027</v>
       </c>
       <c r="D4">
-        <v>5.426579509740627</v>
+        <v>5.526881057324944</v>
       </c>
       <c r="E4">
-        <v>5.480753596240872</v>
+        <v>5.629825899379721</v>
       </c>
       <c r="F4">
-        <v>63.0539727986986</v>
+        <v>65.45967664495602</v>
       </c>
       <c r="G4">
-        <v>2.186801368155857</v>
+        <v>2.222598915514387</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.995132734198462</v>
+        <v>7.515032132149538</v>
       </c>
       <c r="K4">
-        <v>14.96557303054732</v>
+        <v>10.90332373904729</v>
       </c>
       <c r="L4">
-        <v>6.141177274114542</v>
+        <v>5.649044712174224</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66912535266703</v>
+        <v>13.75729055360535</v>
       </c>
       <c r="C5">
-        <v>8.344571266365961</v>
+        <v>4.349737232337465</v>
       </c>
       <c r="D5">
-        <v>5.351268799797628</v>
+        <v>5.459517832574545</v>
       </c>
       <c r="E5">
-        <v>5.492409488150275</v>
+        <v>5.644359344535379</v>
       </c>
       <c r="F5">
-        <v>62.30553150420553</v>
+        <v>64.74145822362991</v>
       </c>
       <c r="G5">
-        <v>2.190353866689001</v>
+        <v>2.225436633947389</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.986805936998695</v>
+        <v>7.500335592059268</v>
       </c>
       <c r="K5">
-        <v>14.77116418619375</v>
+        <v>10.81895134307705</v>
       </c>
       <c r="L5">
-        <v>6.144057675017597</v>
+        <v>5.662330562872239</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.62710106313592</v>
+        <v>13.73609190145839</v>
       </c>
       <c r="C6">
-        <v>8.311317242085309</v>
+        <v>4.334984105229744</v>
       </c>
       <c r="D6">
-        <v>5.338701617647866</v>
+        <v>5.448263680389939</v>
       </c>
       <c r="E6">
-        <v>5.494363311408558</v>
+        <v>5.646808887366934</v>
       </c>
       <c r="F6">
-        <v>62.18098108697097</v>
+        <v>64.62179620249314</v>
       </c>
       <c r="G6">
-        <v>2.190946426720763</v>
+        <v>2.225910330650987</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.985444183401896</v>
+        <v>7.497912804845089</v>
       </c>
       <c r="K6">
-        <v>14.73893686713279</v>
+        <v>10.80507623028538</v>
       </c>
       <c r="L6">
-        <v>6.144615987637471</v>
+        <v>5.664600535712415</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91899415194428</v>
+        <v>13.88398714470689</v>
       </c>
       <c r="C7">
-        <v>8.540323006690679</v>
+        <v>4.436634145848794</v>
       </c>
       <c r="D7">
-        <v>5.42556800332502</v>
+        <v>5.525977176204673</v>
       </c>
       <c r="E7">
-        <v>5.480909563324619</v>
+        <v>5.630019467367905</v>
       </c>
       <c r="F7">
-        <v>63.04389760830242</v>
+        <v>65.45001783737357</v>
       </c>
       <c r="G7">
-        <v>2.186849102009131</v>
+        <v>2.222637020235177</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.995019021617265</v>
+        <v>7.514832744624672</v>
       </c>
       <c r="K7">
-        <v>14.96294768814246</v>
+        <v>10.90217686582523</v>
       </c>
       <c r="L7">
-        <v>6.141210720610121</v>
+        <v>5.64921958474701</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.2099836191833</v>
+        <v>14.554219734973</v>
       </c>
       <c r="C8">
-        <v>9.506989446626251</v>
+        <v>4.866868356281786</v>
       </c>
       <c r="D8">
-        <v>5.799817071173441</v>
+        <v>5.858883083654296</v>
       </c>
       <c r="E8">
-        <v>5.424175533052451</v>
+        <v>5.561241510933098</v>
       </c>
       <c r="F8">
-        <v>66.80938180552843</v>
+        <v>69.04268055692854</v>
       </c>
       <c r="G8">
-        <v>2.169126854917638</v>
+        <v>2.208537789031929</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.040455878570251</v>
+        <v>7.592133159948779</v>
       </c>
       <c r="K8">
-        <v>15.95782588913544</v>
+        <v>11.34979437502156</v>
       </c>
       <c r="L8">
-        <v>6.138202483330168</v>
+        <v>5.590892620648095</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.7391080900957</v>
+        <v>15.92319093259104</v>
       </c>
       <c r="C9">
-        <v>11.25578053830383</v>
+        <v>5.648228719476267</v>
       </c>
       <c r="D9">
-        <v>6.501517926643363</v>
+        <v>6.475714370479009</v>
       </c>
       <c r="E9">
-        <v>5.322018078919693</v>
+        <v>5.445863647826428</v>
       </c>
       <c r="F9">
-        <v>74.02663389121484</v>
+        <v>75.8390923182679</v>
       </c>
       <c r="G9">
-        <v>2.135335087466676</v>
+        <v>2.181941944304872</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.142580902527278</v>
+        <v>7.754083646855959</v>
       </c>
       <c r="K9">
-        <v>17.92180229879303</v>
+        <v>12.29226554991473</v>
       </c>
       <c r="L9">
-        <v>6.179480914002312</v>
+        <v>5.513579030691365</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.59195176052792</v>
+        <v>16.95682458690876</v>
       </c>
       <c r="C10">
-        <v>12.4633117650265</v>
+        <v>6.18839833110211</v>
       </c>
       <c r="D10">
-        <v>6.999312933924108</v>
+        <v>6.907831811452324</v>
       </c>
       <c r="E10">
-        <v>5.252130074368012</v>
+        <v>5.373434897490495</v>
       </c>
       <c r="F10">
-        <v>79.23095953735888</v>
+        <v>80.66894531788493</v>
       </c>
       <c r="G10">
-        <v>2.110729495978337</v>
+        <v>2.162841840391616</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.227276041980243</v>
+        <v>7.8803504851528</v>
       </c>
       <c r="K10">
-        <v>19.63451797763554</v>
+        <v>13.02159114051848</v>
       </c>
       <c r="L10">
-        <v>6.242667014784894</v>
+        <v>5.482245689952419</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.43482511452366</v>
+        <v>17.43258180645407</v>
       </c>
       <c r="C11">
-        <v>12.99912650081087</v>
+        <v>6.427867596272307</v>
       </c>
       <c r="D11">
-        <v>7.22268600932022</v>
+        <v>7.100212494194087</v>
       </c>
       <c r="E11">
-        <v>5.221366828241498</v>
+        <v>5.343284273480352</v>
       </c>
       <c r="F11">
-        <v>81.58204658893582</v>
+        <v>82.83068583392796</v>
       </c>
       <c r="G11">
-        <v>2.099486089613631</v>
+        <v>2.154196735523982</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.268357862981977</v>
+        <v>7.939621768106214</v>
       </c>
       <c r="K11">
-        <v>20.45435240405286</v>
+        <v>13.36122700851781</v>
       </c>
       <c r="L11">
-        <v>6.279562927210314</v>
+        <v>5.474230543492393</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.78477321579476</v>
+        <v>17.61354323301188</v>
       </c>
       <c r="C12">
-        <v>13.20040997446983</v>
+        <v>6.517754924685164</v>
       </c>
       <c r="D12">
-        <v>7.30691946306319</v>
+        <v>7.172502677556174</v>
       </c>
       <c r="E12">
-        <v>5.209857329688332</v>
+        <v>5.332281082113661</v>
       </c>
       <c r="F12">
-        <v>82.4706844382148</v>
+        <v>83.6443583628582</v>
       </c>
       <c r="G12">
-        <v>2.095211515117168</v>
+        <v>2.150924424208508</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.284326442090588</v>
+        <v>7.962353464265498</v>
       </c>
       <c r="K12">
-        <v>20.76234797843192</v>
+        <v>13.49098713257006</v>
       </c>
       <c r="L12">
-        <v>6.294802990154174</v>
+        <v>5.472158365842514</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.70654340369897</v>
+        <v>17.57453373343632</v>
       </c>
       <c r="C13">
-        <v>13.15712620901744</v>
+        <v>6.498429581155057</v>
       </c>
       <c r="D13">
-        <v>7.288792303629557</v>
+        <v>7.156957815366888</v>
       </c>
       <c r="E13">
-        <v>5.212330021948418</v>
+        <v>5.33463218797078</v>
       </c>
       <c r="F13">
-        <v>82.27936073538812</v>
+        <v>83.46933480934457</v>
       </c>
       <c r="G13">
-        <v>2.096133047191025</v>
+        <v>2.151629196919737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.280868221363601</v>
+        <v>7.957444613789133</v>
       </c>
       <c r="K13">
-        <v>20.69611793483718</v>
+        <v>13.46298934485295</v>
       </c>
       <c r="L13">
-        <v>6.291462694913992</v>
+        <v>5.472560699088548</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.46109654076227</v>
+        <v>17.44745335169003</v>
       </c>
       <c r="C14">
-        <v>13.0157165964964</v>
+        <v>6.435277948314743</v>
       </c>
       <c r="D14">
-        <v>7.229622425049557</v>
+        <v>7.106170796327755</v>
       </c>
       <c r="E14">
-        <v>5.220417180560641</v>
+        <v>5.342370659290864</v>
       </c>
       <c r="F14">
-        <v>81.65518389425614</v>
+        <v>82.89772461787969</v>
       </c>
       <c r="G14">
-        <v>2.099134818857476</v>
+        <v>2.153927522526848</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.269663073884214</v>
+        <v>7.941486020802466</v>
       </c>
       <c r="K14">
-        <v>20.47973815240928</v>
+        <v>13.37187925246275</v>
       </c>
       <c r="L14">
-        <v>6.280790721679125</v>
+        <v>5.47404036419883</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.32372657906651</v>
+        <v>17.36971831194498</v>
       </c>
       <c r="C15">
-        <v>12.9288989230975</v>
+        <v>6.396495657342313</v>
       </c>
       <c r="D15">
-        <v>7.193336244055555</v>
+        <v>7.074990771636609</v>
       </c>
       <c r="E15">
-        <v>5.225388761743929</v>
+        <v>5.347165017527035</v>
       </c>
       <c r="F15">
-        <v>81.27266530653287</v>
+        <v>82.54696159226451</v>
       </c>
       <c r="G15">
-        <v>2.100970968157217</v>
+        <v>2.155335340776127</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.26285466858954</v>
+        <v>7.931749046210252</v>
       </c>
       <c r="K15">
-        <v>20.34689198715322</v>
+        <v>13.31622212720433</v>
       </c>
       <c r="L15">
-        <v>6.274422071334938</v>
+        <v>5.475074175671019</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.53688489848622</v>
+        <v>16.92584384263881</v>
       </c>
       <c r="C16">
-        <v>12.42804983394671</v>
+        <v>6.172631218536834</v>
       </c>
       <c r="D16">
-        <v>6.984660171933164</v>
+        <v>6.895178329871328</v>
       </c>
       <c r="E16">
-        <v>5.254160555996602</v>
+        <v>5.375462588378941</v>
       </c>
       <c r="F16">
-        <v>79.07703368899563</v>
+        <v>80.52696876968957</v>
       </c>
       <c r="G16">
-        <v>2.111462473851735</v>
+        <v>2.16340729361116</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.224646287094649</v>
+        <v>7.876515766290236</v>
       </c>
       <c r="K16">
-        <v>19.58057319650841</v>
+        <v>12.99955411130455</v>
       </c>
       <c r="L16">
-        <v>6.240427769932859</v>
+        <v>5.482900523302423</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.05430988655341</v>
+        <v>16.6549529604592</v>
       </c>
       <c r="C17">
-        <v>12.11755192409162</v>
+        <v>6.033765564137967</v>
       </c>
       <c r="D17">
-        <v>6.855912471286612</v>
+        <v>6.783822587769037</v>
       </c>
       <c r="E17">
-        <v>5.272069151038431</v>
+        <v>5.393546745253484</v>
       </c>
       <c r="F17">
-        <v>77.72629716943463</v>
+        <v>79.27877478665101</v>
       </c>
       <c r="G17">
-        <v>2.117879385317173</v>
+        <v>2.168367070937983</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.201890316320475</v>
+        <v>7.843116857421714</v>
       </c>
       <c r="K17">
-        <v>19.10564840340766</v>
+        <v>12.80730504505496</v>
       </c>
       <c r="L17">
-        <v>6.221726101653631</v>
+        <v>5.489344501202501</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.77672563819266</v>
+        <v>16.49966355200213</v>
       </c>
       <c r="C18">
-        <v>11.93766917756578</v>
+        <v>5.953297704459046</v>
       </c>
       <c r="D18">
-        <v>6.781563960601181</v>
+        <v>6.719375993428319</v>
       </c>
       <c r="E18">
-        <v>5.282467095382771</v>
+        <v>5.404210794405672</v>
       </c>
       <c r="F18">
-        <v>76.94779080335013</v>
+        <v>78.55749857604427</v>
       </c>
       <c r="G18">
-        <v>2.121566165173734</v>
+        <v>2.171224235339478</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.189039000339957</v>
+        <v>7.824077526067681</v>
       </c>
       <c r="K18">
-        <v>18.83059700429638</v>
+        <v>12.69746580441823</v>
       </c>
       <c r="L18">
-        <v>6.211730348937379</v>
+        <v>5.493633808334199</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.68273192314811</v>
+        <v>16.4471750739152</v>
       </c>
       <c r="C19">
-        <v>11.87653296534579</v>
+        <v>5.925947330888821</v>
       </c>
       <c r="D19">
-        <v>6.756337610588906</v>
+        <v>6.697486050673033</v>
       </c>
       <c r="E19">
-        <v>5.286004624389197</v>
+        <v>5.40786620873697</v>
       </c>
       <c r="F19">
-        <v>76.68391058606511</v>
+        <v>78.31270924481483</v>
       </c>
       <c r="G19">
-        <v>2.122814019418318</v>
+        <v>2.172192521938859</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.184727276807848</v>
+        <v>7.817659812558136</v>
       </c>
       <c r="K19">
-        <v>18.7371348306928</v>
+        <v>12.66040272471193</v>
       </c>
       <c r="L19">
-        <v>6.208473913784324</v>
+        <v>5.495184301788131</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.10568159957293</v>
+        <v>16.68373605860857</v>
       </c>
       <c r="C20">
-        <v>12.15073655832223</v>
+        <v>6.048609018359952</v>
       </c>
       <c r="D20">
-        <v>6.869647971257718</v>
+        <v>6.795717484193753</v>
       </c>
       <c r="E20">
-        <v>5.270152727203425</v>
+        <v>5.391594404746317</v>
       </c>
       <c r="F20">
-        <v>77.87024664669214</v>
+        <v>79.41199297313754</v>
       </c>
       <c r="G20">
-        <v>2.117196779493669</v>
+        <v>2.167838668870554</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.204287865922344</v>
+        <v>7.846654387198394</v>
       </c>
       <c r="K20">
-        <v>19.15639776175885</v>
+        <v>12.82769394656606</v>
       </c>
       <c r="L20">
-        <v>6.223637512064013</v>
+        <v>5.488597743419716</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.52697902944308</v>
+        <v>17.48475791397788</v>
       </c>
       <c r="C21">
-        <v>13.05729309511718</v>
+        <v>6.453847763966001</v>
       </c>
       <c r="D21">
-        <v>7.247010803633009</v>
+        <v>7.121102986088652</v>
       </c>
       <c r="E21">
-        <v>5.218038058052458</v>
+        <v>5.340086338670893</v>
       </c>
       <c r="F21">
-        <v>81.83855821884802</v>
+        <v>83.06575230577255</v>
       </c>
       <c r="G21">
-        <v>2.098253671168115</v>
+        <v>2.153252452451975</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.272942730642982</v>
+        <v>7.94616545448394</v>
       </c>
       <c r="K21">
-        <v>20.54335737684916</v>
+        <v>13.39860907091847</v>
       </c>
       <c r="L21">
-        <v>6.283890088209708</v>
+        <v>5.47357905847101</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.58130837267161</v>
+        <v>18.01298316592425</v>
       </c>
       <c r="C22">
-        <v>13.64054088804631</v>
+        <v>6.714123717015265</v>
       </c>
       <c r="D22">
-        <v>7.491640735059847</v>
+        <v>7.330523564041052</v>
       </c>
       <c r="E22">
-        <v>5.184789120387139</v>
+        <v>5.308843810774586</v>
       </c>
       <c r="F22">
-        <v>84.42287582102338</v>
+        <v>85.42512148365175</v>
       </c>
       <c r="G22">
-        <v>2.085768743378824</v>
+        <v>2.143724959869793</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.320239031373966</v>
+        <v>8.012887709397761</v>
       </c>
       <c r="K22">
-        <v>21.43572974778427</v>
+        <v>13.84463379313376</v>
       </c>
       <c r="L22">
-        <v>6.330715837096597</v>
+        <v>5.469411856252481</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.01906168789927</v>
+        <v>17.73061554088341</v>
       </c>
       <c r="C23">
-        <v>13.32997452277688</v>
+        <v>6.575589064966847</v>
       </c>
       <c r="D23">
-        <v>7.36122400702003</v>
+        <v>7.2190311910122</v>
       </c>
       <c r="E23">
-        <v>5.202463365835492</v>
+        <v>5.325292653344981</v>
       </c>
       <c r="F23">
-        <v>83.04412031449802</v>
+        <v>84.16840856120309</v>
       </c>
       <c r="G23">
-        <v>2.092445406850657</v>
+        <v>2.148811241584184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.294757408229032</v>
+        <v>7.977113830966625</v>
       </c>
       <c r="K23">
-        <v>20.96059351633832</v>
+        <v>13.57509493888644</v>
       </c>
       <c r="L23">
-        <v>6.305007505671502</v>
+        <v>5.471095652394211</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.08245691673224</v>
+        <v>16.67072181998324</v>
       </c>
       <c r="C24">
-        <v>12.13573808648766</v>
+        <v>6.041900269450715</v>
       </c>
       <c r="D24">
-        <v>6.863439185178054</v>
+        <v>6.790341133652612</v>
       </c>
       <c r="E24">
-        <v>5.271018823930278</v>
+        <v>5.392476226419133</v>
       </c>
       <c r="F24">
-        <v>77.80517321012901</v>
+        <v>79.35177648123958</v>
       </c>
       <c r="G24">
-        <v>2.117505392315261</v>
+        <v>2.168077541261692</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.203203216268121</v>
+        <v>7.845054566669127</v>
       </c>
       <c r="K24">
-        <v>19.13346026784841</v>
+        <v>12.81847398423649</v>
       </c>
       <c r="L24">
-        <v>6.222771015491808</v>
+        <v>5.488933536687416</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.05589611746068</v>
+        <v>15.54766533160462</v>
       </c>
       <c r="C25">
-        <v>10.79724555975255</v>
+        <v>5.44313438342676</v>
       </c>
       <c r="D25">
-        <v>6.315002211290347</v>
+        <v>6.312640385144971</v>
       </c>
       <c r="E25">
-        <v>5.348717927368852</v>
+        <v>5.474945985111146</v>
       </c>
       <c r="F25">
-        <v>72.09235076631205</v>
+        <v>74.02877609006104</v>
       </c>
       <c r="G25">
-        <v>2.144408403427367</v>
+        <v>2.189043675987612</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.113393816410789</v>
+        <v>7.709068944289251</v>
       </c>
       <c r="K25">
-        <v>17.38963448697038</v>
+        <v>12.03069472549477</v>
       </c>
       <c r="L25">
-        <v>6.162860933099699</v>
+        <v>5.530244916791356</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.73977855033865</v>
+        <v>26.24678805718557</v>
       </c>
       <c r="C2">
-        <v>4.979090324158706</v>
+        <v>19.79684940052508</v>
       </c>
       <c r="D2">
-        <v>5.946634274053439</v>
+        <v>9.442240316330984</v>
       </c>
       <c r="E2">
-        <v>5.543910652472682</v>
+        <v>30.67466357065959</v>
       </c>
       <c r="F2">
-        <v>69.99997475314434</v>
+        <v>63.54804827132347</v>
       </c>
       <c r="G2">
-        <v>2.204795613031072</v>
+        <v>2.010439868272769</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.613746810632517</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>11.4755787941221</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.577499336827699</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20593490434878</v>
+        <v>24.21958043420728</v>
       </c>
       <c r="C3">
-        <v>4.648790208896861</v>
+        <v>18.26974872213662</v>
       </c>
       <c r="D3">
-        <v>5.689388584349653</v>
+        <v>8.914116238228157</v>
       </c>
       <c r="E3">
-        <v>5.595641800416867</v>
+        <v>28.2244039492688</v>
       </c>
       <c r="F3">
-        <v>67.20514658578084</v>
+        <v>59.22243557171265</v>
       </c>
       <c r="G3">
-        <v>2.215733762459319</v>
+        <v>2.029395341366887</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.551824230532532</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.11576712905101</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.61908123908086</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88572779375094</v>
+        <v>22.930789809534</v>
       </c>
       <c r="C4">
-        <v>4.437813406891027</v>
+        <v>17.30170589585188</v>
       </c>
       <c r="D4">
-        <v>5.526881057324944</v>
+        <v>8.588640760384001</v>
       </c>
       <c r="E4">
-        <v>5.629825899379721</v>
+        <v>26.67941584961203</v>
       </c>
       <c r="F4">
-        <v>65.45967664495602</v>
+        <v>56.51277687824792</v>
       </c>
       <c r="G4">
-        <v>2.222598915514387</v>
+        <v>2.041032923588916</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.515032132149538</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.90332373904729</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.649044712174224</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.75729055360535</v>
+        <v>22.39372297482674</v>
       </c>
       <c r="C5">
-        <v>4.349737232337465</v>
+        <v>16.89888094117254</v>
       </c>
       <c r="D5">
-        <v>5.459517832574545</v>
+        <v>8.455562333510173</v>
       </c>
       <c r="E5">
-        <v>5.644359344535379</v>
+        <v>26.03828905836542</v>
       </c>
       <c r="F5">
-        <v>64.74145822362991</v>
+        <v>55.39410197988848</v>
       </c>
       <c r="G5">
-        <v>2.225436633947389</v>
+        <v>2.045788770045434</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.500335592059268</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>10.81895134307705</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.662330562872239</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.73609190145839</v>
+        <v>22.30380541782452</v>
       </c>
       <c r="C6">
-        <v>4.334984105229744</v>
+        <v>16.83147007907164</v>
       </c>
       <c r="D6">
-        <v>5.448263680389939</v>
+        <v>8.43343485181971</v>
       </c>
       <c r="E6">
-        <v>5.646808887366934</v>
+        <v>25.93109875840167</v>
       </c>
       <c r="F6">
-        <v>64.62179620249314</v>
+        <v>55.20745322129684</v>
       </c>
       <c r="G6">
-        <v>2.225910330650987</v>
+        <v>2.046579647295397</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.497912804845089</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>10.80507623028538</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5.664600535712415</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88398714470689</v>
+        <v>22.92359577425717</v>
       </c>
       <c r="C7">
-        <v>4.436634145848794</v>
+        <v>17.29630786899273</v>
       </c>
       <c r="D7">
-        <v>5.525977176204673</v>
+        <v>8.5868479638106</v>
       </c>
       <c r="E7">
-        <v>5.630019467367905</v>
+        <v>26.67081769861645</v>
       </c>
       <c r="F7">
-        <v>65.45001783737357</v>
+        <v>56.49774957047094</v>
       </c>
       <c r="G7">
-        <v>2.222637020235177</v>
+        <v>2.041096991607672</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.514832744624672</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>10.90217686582523</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5.64921958474701</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.554219734973</v>
+        <v>25.55643791326133</v>
       </c>
       <c r="C8">
-        <v>4.866868356281786</v>
+        <v>19.27615912934608</v>
       </c>
       <c r="D8">
-        <v>5.858883083654296</v>
+        <v>9.260289089134478</v>
       </c>
       <c r="E8">
-        <v>5.561241510933098</v>
+        <v>29.83734108505769</v>
       </c>
       <c r="F8">
-        <v>69.04268055692854</v>
+        <v>62.06700749867034</v>
       </c>
       <c r="G8">
-        <v>2.208537789031929</v>
+        <v>2.016984953209485</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.592133159948779</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>11.34979437502156</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.590892620648095</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.92319093259104</v>
+        <v>30.41370968656153</v>
       </c>
       <c r="C9">
-        <v>5.648228719476267</v>
+        <v>22.95616959896649</v>
       </c>
       <c r="D9">
-        <v>6.475714370479009</v>
+        <v>10.58149212437364</v>
       </c>
       <c r="E9">
-        <v>5.445863647826428</v>
+        <v>35.80129715655028</v>
       </c>
       <c r="F9">
-        <v>75.8390923182679</v>
+        <v>72.63218803581518</v>
       </c>
       <c r="G9">
-        <v>2.181941944304872</v>
+        <v>1.968923078333752</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.754083646855959</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12.29226554991473</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.513579030691365</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.95682458690876</v>
+        <v>33.87605203283832</v>
       </c>
       <c r="C10">
-        <v>6.18839833110211</v>
+        <v>25.60710150872071</v>
       </c>
       <c r="D10">
-        <v>6.907831811452324</v>
+        <v>11.57442240581359</v>
       </c>
       <c r="E10">
-        <v>5.373434897490495</v>
+        <v>40.1748490172909</v>
       </c>
       <c r="F10">
-        <v>80.66894531788493</v>
+        <v>80.54051721636908</v>
       </c>
       <c r="G10">
-        <v>2.162841840391616</v>
+        <v>1.931726294619023</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.8803504851528</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>13.02159114051848</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.482245689952419</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.43258180645407</v>
+        <v>35.45422905916183</v>
       </c>
       <c r="C11">
-        <v>6.427867596272307</v>
+        <v>26.82484214780176</v>
       </c>
       <c r="D11">
-        <v>7.100212494194087</v>
+        <v>12.03904925477299</v>
       </c>
       <c r="E11">
-        <v>5.343284273480352</v>
+        <v>42.21059482593153</v>
       </c>
       <c r="F11">
-        <v>82.83068583392796</v>
+        <v>84.18346965236199</v>
       </c>
       <c r="G11">
-        <v>2.154196735523982</v>
+        <v>1.913929765371231</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.939621768106214</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>13.36122700851781</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.474230543492393</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.61354323301188</v>
+        <v>36.05549049343355</v>
       </c>
       <c r="C12">
-        <v>6.517754924685164</v>
+        <v>27.29052468993865</v>
       </c>
       <c r="D12">
-        <v>7.172502677556174</v>
+        <v>12.21789564228058</v>
       </c>
       <c r="E12">
-        <v>5.332281082113661</v>
+        <v>42.99415990142951</v>
       </c>
       <c r="F12">
-        <v>83.6443583628582</v>
+        <v>85.57443696643972</v>
       </c>
       <c r="G12">
-        <v>2.150924424208508</v>
+        <v>1.907007552749045</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.962353464265498</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>13.49098713257006</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.472158365842514</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.57453373343632</v>
+        <v>35.92577224411583</v>
       </c>
       <c r="C13">
-        <v>6.498429581155057</v>
+        <v>27.18997185068548</v>
       </c>
       <c r="D13">
-        <v>7.156957815366888</v>
+        <v>12.17922750502245</v>
       </c>
       <c r="E13">
-        <v>5.33463218797078</v>
+        <v>42.82471849117065</v>
       </c>
       <c r="F13">
-        <v>83.46933480934457</v>
+        <v>85.27421405460521</v>
       </c>
       <c r="G13">
-        <v>2.151629196919737</v>
+        <v>1.90850766548506</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.957444613789133</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>13.46298934485295</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.472560699088548</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.44745335169003</v>
+        <v>35.503599680102</v>
       </c>
       <c r="C14">
-        <v>6.435277948314743</v>
+        <v>26.86304268634484</v>
       </c>
       <c r="D14">
-        <v>7.106170796327755</v>
+        <v>12.05369738572334</v>
       </c>
       <c r="E14">
-        <v>5.342370659290864</v>
+        <v>42.27476186777458</v>
       </c>
       <c r="F14">
-        <v>82.89772461787969</v>
+        <v>84.29762506640796</v>
       </c>
       <c r="G14">
-        <v>2.153927522526848</v>
+        <v>1.913364344850408</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.941486020802466</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>13.37187925246275</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.47404036419883</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.36971831194498</v>
+        <v>35.24559565407764</v>
       </c>
       <c r="C15">
-        <v>6.396495657342313</v>
+        <v>26.66348472232198</v>
       </c>
       <c r="D15">
-        <v>7.074990771636609</v>
+        <v>11.97722265277049</v>
       </c>
       <c r="E15">
-        <v>5.347165017527035</v>
+        <v>41.93976813747312</v>
       </c>
       <c r="F15">
-        <v>82.54696159226451</v>
+        <v>83.70118603006244</v>
       </c>
       <c r="G15">
-        <v>2.155335340776127</v>
+        <v>1.916313299920919</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.931749046210252</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>13.31622212720433</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.475074175671019</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.92584384263881</v>
+        <v>33.77322494453298</v>
       </c>
       <c r="C16">
-        <v>6.172631218536834</v>
+        <v>25.52797788720428</v>
       </c>
       <c r="D16">
-        <v>6.895178329871328</v>
+        <v>11.5443983169956</v>
       </c>
       <c r="E16">
-        <v>5.375462588378941</v>
+        <v>40.04320168908147</v>
       </c>
       <c r="F16">
-        <v>80.52696876968957</v>
+        <v>80.30360017115548</v>
       </c>
       <c r="G16">
-        <v>2.16340729361116</v>
+        <v>1.932867294210722</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.876515766290236</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>12.99955411130455</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.482900523302423</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.6549529604592</v>
+        <v>32.87271381570726</v>
       </c>
       <c r="C17">
-        <v>6.033765564137967</v>
+        <v>24.83613507090051</v>
       </c>
       <c r="D17">
-        <v>6.783822587769037</v>
+        <v>11.28281053043283</v>
       </c>
       <c r="E17">
-        <v>5.393546745253484</v>
+        <v>38.89516505701508</v>
       </c>
       <c r="F17">
-        <v>79.27877478665101</v>
+        <v>78.2313357347299</v>
       </c>
       <c r="G17">
-        <v>2.168367070937983</v>
+        <v>1.942763750988347</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.843116857421714</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>12.80730504505496</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.489344501202501</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.49966355200213</v>
+        <v>32.35481734302617</v>
       </c>
       <c r="C18">
-        <v>5.953297704459046</v>
+        <v>24.43910093995113</v>
       </c>
       <c r="D18">
-        <v>6.719375993428319</v>
+        <v>11.13348911491293</v>
       </c>
       <c r="E18">
-        <v>5.404210794405672</v>
+        <v>38.23872953363013</v>
       </c>
       <c r="F18">
-        <v>78.55749857604427</v>
+        <v>77.04173180354569</v>
       </c>
       <c r="G18">
-        <v>2.171224235339478</v>
+        <v>1.948377868415365</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.824077526067681</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.69746580441823</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.493633808334199</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.4471750739152</v>
+        <v>32.17939591197614</v>
       </c>
       <c r="C19">
-        <v>5.925947330888821</v>
+        <v>24.30475469442337</v>
       </c>
       <c r="D19">
-        <v>6.697486050673033</v>
+        <v>11.08310118995642</v>
       </c>
       <c r="E19">
-        <v>5.40786620873697</v>
+        <v>38.01699054411644</v>
       </c>
       <c r="F19">
-        <v>78.31270924481483</v>
+        <v>76.63917250456655</v>
       </c>
       <c r="G19">
-        <v>2.172192521938859</v>
+        <v>1.950266731702656</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.817659812558136</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>12.66040272471193</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.495184301788131</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.68373605860857</v>
+        <v>32.96854963280244</v>
       </c>
       <c r="C20">
-        <v>6.048609018359952</v>
+        <v>24.90967278290232</v>
       </c>
       <c r="D20">
-        <v>6.795717484193753</v>
+        <v>11.31053303980021</v>
       </c>
       <c r="E20">
-        <v>5.391594404746317</v>
+        <v>39.01693697066612</v>
       </c>
       <c r="F20">
-        <v>79.41199297313754</v>
+        <v>78.45164968891322</v>
       </c>
       <c r="G20">
-        <v>2.167838668870554</v>
+        <v>1.941718685537057</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.846654387198394</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>12.82769394656606</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.488597743419716</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.48475791397788</v>
+        <v>35.6274717944293</v>
       </c>
       <c r="C21">
-        <v>6.453847763966001</v>
+        <v>26.95891802727061</v>
       </c>
       <c r="D21">
-        <v>7.121102986088652</v>
+        <v>12.09047941382316</v>
       </c>
       <c r="E21">
-        <v>5.340086338670893</v>
+        <v>42.43589318647892</v>
       </c>
       <c r="F21">
-        <v>83.06575230577255</v>
+        <v>84.58409143282279</v>
       </c>
       <c r="G21">
-        <v>2.153252452451975</v>
+        <v>1.911943352712931</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.94616545448394</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>13.39860907091847</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.47357905847101</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.01298316592425</v>
+        <v>37.38893267083115</v>
       </c>
       <c r="C22">
-        <v>6.714123717015265</v>
+        <v>28.32698059617297</v>
       </c>
       <c r="D22">
-        <v>7.330523564041052</v>
+        <v>12.61797675994057</v>
       </c>
       <c r="E22">
-        <v>5.308843810774586</v>
+        <v>44.7491161665681</v>
       </c>
       <c r="F22">
-        <v>85.42512148365175</v>
+        <v>88.66440359819417</v>
       </c>
       <c r="G22">
-        <v>2.143724959869793</v>
+        <v>1.891371730508755</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.012887709397761</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>13.84463379313376</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5.469411856252481</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.73061554088341</v>
+        <v>36.44523670829629</v>
       </c>
       <c r="C23">
-        <v>6.575589064966847</v>
+        <v>27.59292849431206</v>
       </c>
       <c r="D23">
-        <v>7.2190311910122</v>
+        <v>12.3343483208511</v>
       </c>
       <c r="E23">
-        <v>5.325292653344981</v>
+        <v>43.50458967050593</v>
       </c>
       <c r="F23">
-        <v>84.16840856120309</v>
+        <v>86.47688851490064</v>
       </c>
       <c r="G23">
-        <v>2.148811241584184</v>
+        <v>1.902478127042289</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.977113830966625</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>13.57509493888644</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>5.471095652394211</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.67072181998324</v>
+        <v>32.92522304524128</v>
       </c>
       <c r="C24">
-        <v>6.041900269450715</v>
+        <v>24.87642435347673</v>
       </c>
       <c r="D24">
-        <v>6.790341133652612</v>
+        <v>11.29799643622048</v>
       </c>
       <c r="E24">
-        <v>5.392476226419133</v>
+        <v>38.96187313677655</v>
       </c>
       <c r="F24">
-        <v>79.35177648123958</v>
+        <v>78.35204073660913</v>
       </c>
       <c r="G24">
-        <v>2.168077541261692</v>
+        <v>1.942191390765354</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.845054566669127</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>12.81847398423649</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.488933536687416</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.54766533160462</v>
+        <v>29.12536297092025</v>
       </c>
       <c r="C25">
-        <v>5.44313438342676</v>
+        <v>21.97609435544717</v>
       </c>
       <c r="D25">
-        <v>6.312640385144971</v>
+        <v>10.22222143521088</v>
       </c>
       <c r="E25">
-        <v>5.474945985111146</v>
+        <v>34.20189188957374</v>
       </c>
       <c r="F25">
-        <v>74.02877609006104</v>
+        <v>69.79983567977006</v>
       </c>
       <c r="G25">
-        <v>2.189043675987612</v>
+        <v>1.982132171959193</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.709068944289251</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>12.03069472549477</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.530244916791356</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718557</v>
+        <v>25.09162204330912</v>
       </c>
       <c r="C2">
-        <v>19.79684940052508</v>
+        <v>18.47399010597071</v>
       </c>
       <c r="D2">
-        <v>9.442240316330984</v>
+        <v>9.949435633419888</v>
       </c>
       <c r="E2">
-        <v>30.67466357065959</v>
+        <v>29.97399276523737</v>
       </c>
       <c r="F2">
-        <v>63.54804827132347</v>
+        <v>63.78985587359618</v>
       </c>
       <c r="G2">
-        <v>2.010439868272769</v>
+        <v>2.052326989345261</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.61254263864284</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +465,37 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21958043420728</v>
+        <v>23.28713293030771</v>
       </c>
       <c r="C3">
-        <v>18.26974872213662</v>
+        <v>17.16850416502281</v>
       </c>
       <c r="D3">
-        <v>8.914116238228157</v>
+        <v>9.410351149078684</v>
       </c>
       <c r="E3">
-        <v>28.2244039492688</v>
+        <v>27.75747349747698</v>
       </c>
       <c r="F3">
-        <v>59.22243557171265</v>
+        <v>59.69875401244204</v>
       </c>
       <c r="G3">
-        <v>2.029395341366887</v>
+        <v>2.065240500917118</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.16370515800479</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +515,37 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.930789809534</v>
+        <v>22.12547501097111</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>16.32861586530547</v>
       </c>
       <c r="D4">
-        <v>8.588640760384001</v>
+        <v>9.071650514194788</v>
       </c>
       <c r="E4">
-        <v>26.67941584961203</v>
+        <v>26.33657662822369</v>
       </c>
       <c r="F4">
-        <v>56.51277687824792</v>
+        <v>57.1034998742069</v>
       </c>
       <c r="G4">
-        <v>2.041032923588916</v>
+        <v>2.073263716735706</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.883303598189917</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +565,37 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482674</v>
+        <v>21.63827136180745</v>
       </c>
       <c r="C5">
-        <v>16.89888094117254</v>
+        <v>15.97647900784657</v>
       </c>
       <c r="D5">
-        <v>8.455562333510173</v>
+        <v>8.93166159706127</v>
       </c>
       <c r="E5">
-        <v>26.03828905836542</v>
+        <v>25.74202389159947</v>
       </c>
       <c r="F5">
-        <v>55.39410197988848</v>
+        <v>56.02482923276</v>
       </c>
       <c r="G5">
-        <v>2.045788770045434</v>
+        <v>2.076561839577494</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.767678630555835</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +615,37 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782452</v>
+        <v>21.5565282040585</v>
       </c>
       <c r="C6">
-        <v>16.83147007907164</v>
+        <v>15.91740386839314</v>
       </c>
       <c r="D6">
-        <v>8.43343485181971</v>
+        <v>8.908297478624496</v>
       </c>
       <c r="E6">
-        <v>25.93109875840167</v>
+        <v>25.64234865373415</v>
       </c>
       <c r="F6">
-        <v>55.20745322129684</v>
+        <v>55.84444343494801</v>
       </c>
       <c r="G6">
-        <v>2.046579647295397</v>
+        <v>2.077111351230926</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.748393037114055</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +665,37 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425717</v>
+        <v>22.11896076286798</v>
       </c>
       <c r="C7">
-        <v>17.29630786899273</v>
+        <v>16.32390711293055</v>
       </c>
       <c r="D7">
-        <v>8.5868479638106</v>
+        <v>9.069770552962817</v>
       </c>
       <c r="E7">
-        <v>26.67081769861645</v>
+        <v>26.32862171540391</v>
       </c>
       <c r="F7">
-        <v>56.49774957047094</v>
+        <v>57.08903794081366</v>
       </c>
       <c r="G7">
-        <v>2.041096991607672</v>
+        <v>2.073308074477104</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.881749928205226</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +715,37 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326133</v>
+        <v>24.48037882387094</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>18.03165825221786</v>
       </c>
       <c r="D8">
-        <v>9.260289089134478</v>
+        <v>9.765131381770036</v>
       </c>
       <c r="E8">
-        <v>29.83734108505769</v>
+        <v>29.22189358704792</v>
       </c>
       <c r="F8">
-        <v>62.06700749867034</v>
+        <v>62.39638565724101</v>
       </c>
       <c r="G8">
-        <v>2.016984953209485</v>
+        <v>2.056763113570778</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.458688211330769</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +765,37 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656153</v>
+        <v>28.70102209279462</v>
       </c>
       <c r="C9">
-        <v>22.95616959896649</v>
+        <v>21.08878973440758</v>
       </c>
       <c r="D9">
-        <v>10.58149212437364</v>
+        <v>11.07050334188413</v>
       </c>
       <c r="E9">
-        <v>35.80129715655028</v>
+        <v>34.44274201426896</v>
       </c>
       <c r="F9">
-        <v>72.63218803581518</v>
+        <v>72.16065649518096</v>
       </c>
       <c r="G9">
-        <v>1.968923078333752</v>
+        <v>2.024814630930595</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>4.559482087888032</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +815,37 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283832</v>
+        <v>31.54656792351166</v>
       </c>
       <c r="C10">
-        <v>25.60710150872071</v>
+        <v>23.14457149537265</v>
       </c>
       <c r="D10">
-        <v>11.57442240581359</v>
+        <v>11.75803897147574</v>
       </c>
       <c r="E10">
-        <v>40.1748490172909</v>
+        <v>37.13058625557837</v>
       </c>
       <c r="F10">
-        <v>80.54051721636908</v>
+        <v>77.97024627930021</v>
       </c>
       <c r="G10">
-        <v>1.931726294619023</v>
+        <v>2.002308007713388</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>5.301813636990076</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +865,37 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916183</v>
+        <v>32.54606282459688</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>23.7914815401432</v>
       </c>
       <c r="D11">
-        <v>12.03904925477299</v>
+        <v>10.00714935249312</v>
       </c>
       <c r="E11">
-        <v>42.21059482593153</v>
+        <v>30.65656381682124</v>
       </c>
       <c r="F11">
-        <v>84.18346965236199</v>
+        <v>71.92397286223122</v>
       </c>
       <c r="G11">
-        <v>1.913929765371231</v>
+        <v>2.00067256976988</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>5.548726509222495</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +915,37 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343355</v>
+        <v>32.83023954672815</v>
       </c>
       <c r="C12">
-        <v>27.29052468993865</v>
+        <v>23.94464917857163</v>
       </c>
       <c r="D12">
-        <v>12.21789564228058</v>
+        <v>8.410937696553034</v>
       </c>
       <c r="E12">
-        <v>42.99415990142951</v>
+        <v>24.7789013637149</v>
       </c>
       <c r="F12">
-        <v>85.57443696643972</v>
+        <v>65.63274726239131</v>
       </c>
       <c r="G12">
-        <v>1.907007552749045</v>
+        <v>2.003153226811051</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>6.141542051952365</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +965,37 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411583</v>
+        <v>32.59802890459212</v>
       </c>
       <c r="C13">
-        <v>27.18997185068548</v>
+        <v>23.7380491713224</v>
       </c>
       <c r="D13">
-        <v>12.17922750502245</v>
+        <v>6.824672898864965</v>
       </c>
       <c r="E13">
-        <v>42.82471849117065</v>
+        <v>18.93868569922808</v>
       </c>
       <c r="F13">
-        <v>85.27421405460521</v>
+        <v>58.5983593343778</v>
       </c>
       <c r="G13">
-        <v>1.90850766548506</v>
+        <v>2.008866089255325</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.943210947902266</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1015,37 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.503599680102</v>
+        <v>32.20703376896577</v>
       </c>
       <c r="C14">
-        <v>26.86304268634484</v>
+        <v>23.43516162712672</v>
       </c>
       <c r="D14">
-        <v>12.05369738572334</v>
+        <v>5.737507921747926</v>
       </c>
       <c r="E14">
-        <v>42.27476186777458</v>
+        <v>14.98576794687479</v>
       </c>
       <c r="F14">
-        <v>84.29762506640796</v>
+        <v>53.26192911764752</v>
       </c>
       <c r="G14">
-        <v>1.913364344850408</v>
+        <v>2.014159912304824</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>7.609183751723979</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1065,37 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407764</v>
+        <v>31.9981681757402</v>
       </c>
       <c r="C15">
-        <v>26.66348472232198</v>
+        <v>23.28073640717917</v>
       </c>
       <c r="D15">
-        <v>11.97722265277049</v>
+        <v>5.474949879199457</v>
       </c>
       <c r="E15">
-        <v>41.93976813747312</v>
+        <v>14.02003574641713</v>
       </c>
       <c r="F15">
-        <v>83.70118603006244</v>
+        <v>51.77905743583818</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
+        <v>2.016238828439874</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.757974649035909</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1115,37 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453298</v>
+        <v>30.88697010877708</v>
       </c>
       <c r="C16">
-        <v>25.52797788720428</v>
+        <v>22.48659249021285</v>
       </c>
       <c r="D16">
-        <v>11.5443983169956</v>
+        <v>5.452525231143754</v>
       </c>
       <c r="E16">
-        <v>40.04320168908147</v>
+        <v>13.53167919457164</v>
       </c>
       <c r="F16">
-        <v>80.30360017115548</v>
+        <v>50.30542491275401</v>
       </c>
       <c r="G16">
-        <v>1.932867294210722</v>
+        <v>2.024362094369057</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.4111328482205</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1165,37 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570726</v>
+        <v>30.22872033772455</v>
       </c>
       <c r="C17">
-        <v>24.83613507090051</v>
+        <v>22.02782539548715</v>
       </c>
       <c r="D17">
-        <v>11.28281053043283</v>
+        <v>6.007293657698028</v>
       </c>
       <c r="E17">
-        <v>38.89516505701508</v>
+        <v>15.30179769351107</v>
       </c>
       <c r="F17">
-        <v>78.2313357347299</v>
+        <v>52.13549503827236</v>
       </c>
       <c r="G17">
-        <v>1.942763750988347</v>
+        <v>2.027905484637789</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.726754454898491</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1215,37 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302617</v>
+        <v>29.90624943499985</v>
       </c>
       <c r="C18">
-        <v>24.43910093995113</v>
+        <v>21.82460530203911</v>
       </c>
       <c r="D18">
-        <v>11.13348911491293</v>
+        <v>7.18039733184535</v>
       </c>
       <c r="E18">
-        <v>38.23872953363013</v>
+        <v>19.63813053720812</v>
       </c>
       <c r="F18">
-        <v>77.04173180354569</v>
+        <v>57.05377915721479</v>
       </c>
       <c r="G18">
-        <v>1.948377868415365</v>
+        <v>2.027519739105055</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.782303351715262</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1265,37 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197614</v>
+        <v>29.90155473253193</v>
       </c>
       <c r="C19">
-        <v>24.30475469442337</v>
+        <v>21.86625813692876</v>
       </c>
       <c r="D19">
-        <v>11.08310118995642</v>
+        <v>8.814211965638959</v>
       </c>
       <c r="E19">
-        <v>38.01699054411644</v>
+        <v>25.88506888895865</v>
       </c>
       <c r="F19">
-        <v>76.63917250456655</v>
+        <v>64.06976265189496</v>
       </c>
       <c r="G19">
-        <v>1.950266731702656</v>
+        <v>2.023317261136394</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.999814618076396</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1315,37 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280244</v>
+        <v>30.81252933822258</v>
       </c>
       <c r="C20">
-        <v>24.90967278290232</v>
+        <v>22.61352999365151</v>
       </c>
       <c r="D20">
-        <v>11.31053303980021</v>
+        <v>11.56709906552241</v>
       </c>
       <c r="E20">
-        <v>39.01693697066612</v>
+        <v>36.39025605721771</v>
       </c>
       <c r="F20">
-        <v>78.45164968891322</v>
+        <v>76.41409995451855</v>
       </c>
       <c r="G20">
-        <v>1.941718685537057</v>
+        <v>2.008282526736644</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>5.103644911994182</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1365,37 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.6274717944293</v>
+        <v>32.98078148417397</v>
       </c>
       <c r="C21">
-        <v>26.95891802727061</v>
+        <v>24.19705347449057</v>
       </c>
       <c r="D21">
-        <v>12.09047941382316</v>
+        <v>12.46521112350883</v>
       </c>
       <c r="E21">
-        <v>42.43589318647892</v>
+        <v>39.80513902416875</v>
       </c>
       <c r="F21">
-        <v>84.58409143282279</v>
+        <v>82.35560900991608</v>
       </c>
       <c r="G21">
-        <v>1.911943352712931</v>
+        <v>1.989179157947559</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>5.769142880485959</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1415,37 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083115</v>
+        <v>34.35181736984947</v>
       </c>
       <c r="C22">
-        <v>28.32698059617297</v>
+        <v>25.19507825081201</v>
       </c>
       <c r="D22">
-        <v>12.61797675994057</v>
+        <v>12.92569902534255</v>
       </c>
       <c r="E22">
-        <v>44.7491161665681</v>
+        <v>41.53827728325149</v>
       </c>
       <c r="F22">
-        <v>88.66440359819417</v>
+        <v>85.67494059192747</v>
       </c>
       <c r="G22">
-        <v>1.891371730508755</v>
+        <v>1.97704575695075</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>6.177029331729654</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1465,37 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.44523670829629</v>
+        <v>33.62264607286672</v>
       </c>
       <c r="C23">
-        <v>27.59292849431206</v>
+        <v>24.66413285925804</v>
       </c>
       <c r="D23">
-        <v>12.3343483208511</v>
+        <v>12.67999822179903</v>
       </c>
       <c r="E23">
-        <v>43.50458967050593</v>
+        <v>40.61558036066554</v>
       </c>
       <c r="F23">
-        <v>86.47688851490064</v>
+        <v>83.90657479695024</v>
       </c>
       <c r="G23">
-        <v>1.902478127042289</v>
+        <v>1.983543030701546</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>5.958854141076635</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1515,37 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524128</v>
+        <v>30.80004714198831</v>
       </c>
       <c r="C24">
-        <v>24.87642435347673</v>
+        <v>22.61202480973971</v>
       </c>
       <c r="D24">
-        <v>11.29799643622048</v>
+        <v>11.74620879957119</v>
       </c>
       <c r="E24">
-        <v>38.96187313677655</v>
+        <v>37.06388077398027</v>
       </c>
       <c r="F24">
-        <v>78.35204073660913</v>
+        <v>77.12769560712599</v>
       </c>
       <c r="G24">
-        <v>1.942191390765354</v>
+        <v>2.007754736330273</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>5.140833161081212</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1565,37 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092025</v>
+        <v>27.60071365192352</v>
       </c>
       <c r="C25">
-        <v>21.97609435544717</v>
+        <v>20.29112749639399</v>
       </c>
       <c r="D25">
-        <v>10.22222143521088</v>
+        <v>10.72306559985791</v>
       </c>
       <c r="E25">
-        <v>34.20189188957374</v>
+        <v>33.07539001948658</v>
       </c>
       <c r="F25">
-        <v>69.79983567977006</v>
+        <v>69.58467979162481</v>
       </c>
       <c r="G25">
-        <v>1.982132171959193</v>
+        <v>2.033443002007214</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>4.263798859323941</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1613,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
@@ -427,40 +427,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.09162204330912</v>
+        <v>13.54709974267697</v>
       </c>
       <c r="C2">
-        <v>18.47399010597071</v>
+        <v>6.314146918713713</v>
       </c>
       <c r="D2">
-        <v>9.949435633419888</v>
+        <v>3.942075114654553</v>
       </c>
       <c r="E2">
-        <v>29.97399276523737</v>
+        <v>6.755857619866471</v>
       </c>
       <c r="F2">
-        <v>63.78985587359618</v>
+        <v>30.04037933696119</v>
       </c>
       <c r="G2">
-        <v>2.052326989345261</v>
+        <v>38.91621182352387</v>
       </c>
       <c r="H2">
-        <v>3.61254263864284</v>
+        <v>3.777892660849062</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.06054131139027</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.31968121917402</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.715269590898211</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.16061223456801</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.705636065475505</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -477,40 +477,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.28713293030771</v>
+        <v>12.71533305148697</v>
       </c>
       <c r="C3">
-        <v>17.16850416502281</v>
+        <v>6.00126565964232</v>
       </c>
       <c r="D3">
-        <v>9.410351149078684</v>
+        <v>3.766864689019111</v>
       </c>
       <c r="E3">
-        <v>27.75747349747698</v>
+        <v>6.573162568667697</v>
       </c>
       <c r="F3">
-        <v>59.69875401244204</v>
+        <v>29.6144930922619</v>
       </c>
       <c r="G3">
-        <v>2.065240500917118</v>
+        <v>38.29744678025261</v>
       </c>
       <c r="H3">
-        <v>3.16370515800479</v>
+        <v>4.038738876163019</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.02792708849563</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.25751191497488</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.656553904475721</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.45894366041986</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.484463046517082</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,40 +527,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.12547501097111</v>
+        <v>12.17868700645685</v>
       </c>
       <c r="C4">
-        <v>16.32861586530547</v>
+        <v>5.800616644023948</v>
       </c>
       <c r="D4">
-        <v>9.071650514194788</v>
+        <v>3.655369680183485</v>
       </c>
       <c r="E4">
-        <v>26.33657662822369</v>
+        <v>6.457984621404178</v>
       </c>
       <c r="F4">
-        <v>57.1034998742069</v>
+        <v>29.36318737143544</v>
       </c>
       <c r="G4">
-        <v>2.073263716735706</v>
+        <v>37.9336017990773</v>
       </c>
       <c r="H4">
-        <v>2.883303598189917</v>
+        <v>4.204297181135205</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.01282307414971</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.22776277200052</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.61948842184915</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.00371764795738</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.344859415062411</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -577,40 +577,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.63827136180745</v>
+        <v>11.95357802100971</v>
       </c>
       <c r="C5">
-        <v>15.97647900784657</v>
+        <v>5.716737077658332</v>
       </c>
       <c r="D5">
-        <v>8.93166159706127</v>
+        <v>3.60899302774706</v>
       </c>
       <c r="E5">
-        <v>25.74202389159947</v>
+        <v>6.410315621738614</v>
       </c>
       <c r="F5">
-        <v>56.02482923276</v>
+        <v>29.2633655418075</v>
       </c>
       <c r="G5">
-        <v>2.076561839577494</v>
+        <v>37.78940311690961</v>
       </c>
       <c r="H5">
-        <v>2.767678630555835</v>
+        <v>4.273145968733564</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.00787541893621</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.21770194010508</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.604125995985633</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.812075878749024</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.287065043526671</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -627,40 +627,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.5565282040585</v>
+        <v>11.91581455147016</v>
       </c>
       <c r="C6">
-        <v>15.91740386839314</v>
+        <v>5.702682453190258</v>
       </c>
       <c r="D6">
-        <v>8.908297478624496</v>
+        <v>3.601236748059891</v>
       </c>
       <c r="E6">
-        <v>25.64234865373415</v>
+        <v>6.402356636650103</v>
       </c>
       <c r="F6">
-        <v>55.84444343494801</v>
+        <v>29.24694708454945</v>
       </c>
       <c r="G6">
-        <v>2.077111351230926</v>
+        <v>37.76570553167817</v>
       </c>
       <c r="H6">
-        <v>2.748393037114055</v>
+        <v>4.284662470814403</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.00712589937913</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.21615425182327</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.601559413777155</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.779883690952133</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.277415295873754</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -677,40 +677,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.11896076286798</v>
+        <v>12.17567695273143</v>
       </c>
       <c r="C7">
-        <v>16.32390711293055</v>
+        <v>5.799493921143735</v>
       </c>
       <c r="D7">
-        <v>9.069770552962817</v>
+        <v>3.654747978722539</v>
       </c>
       <c r="E7">
-        <v>26.32862171540391</v>
+        <v>6.4573446778773</v>
       </c>
       <c r="F7">
-        <v>57.08903794081366</v>
+        <v>29.36183063472124</v>
       </c>
       <c r="G7">
-        <v>2.073308074477104</v>
+        <v>37.93164057215242</v>
       </c>
       <c r="H7">
-        <v>2.881749928205226</v>
+        <v>4.205220069912869</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13.01275149980785</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.22761881263988</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.61928228703473</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.00115792555421</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.34408357138094</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -727,40 +727,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.48037882387094</v>
+        <v>13.26574176464058</v>
       </c>
       <c r="C8">
-        <v>18.03165825221786</v>
+        <v>6.208055097806784</v>
       </c>
       <c r="D8">
-        <v>9.765131381770036</v>
+        <v>3.882498758460315</v>
       </c>
       <c r="E8">
-        <v>29.22189358704792</v>
+        <v>6.693499867339094</v>
       </c>
       <c r="F8">
-        <v>62.39638565724101</v>
+        <v>29.89143527452506</v>
       </c>
       <c r="G8">
-        <v>2.056763113570778</v>
+        <v>38.69954391274364</v>
       </c>
       <c r="H8">
-        <v>3.458688211330769</v>
+        <v>3.866727609592196</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.04825646022982</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.29646360591656</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.69523295261534</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.92373920311925</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.630193967241514</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -777,40 +777,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.70102209279462</v>
+        <v>15.1944753807414</v>
       </c>
       <c r="C9">
-        <v>21.08878973440758</v>
+        <v>6.940457779380573</v>
       </c>
       <c r="D9">
-        <v>11.07050334188413</v>
+        <v>4.296511391470168</v>
       </c>
       <c r="E9">
-        <v>34.44274201426896</v>
+        <v>7.131957356974689</v>
       </c>
       <c r="F9">
-        <v>72.16065649518096</v>
+        <v>31.00955618043126</v>
       </c>
       <c r="G9">
-        <v>2.024814630930595</v>
+        <v>40.33139506818705</v>
       </c>
       <c r="H9">
-        <v>4.559482087888032</v>
+        <v>3.244579920259121</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.15827197703336</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.50077932253189</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.836278771045402</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.53968579566027</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.159108497454233</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -827,40 +827,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.54656792351166</v>
+        <v>16.53129321111028</v>
       </c>
       <c r="C10">
-        <v>23.14457149537265</v>
+        <v>7.460973093141031</v>
       </c>
       <c r="D10">
-        <v>11.75803897147574</v>
+        <v>4.562371903879074</v>
       </c>
       <c r="E10">
-        <v>37.13058625557837</v>
+        <v>7.358589822077299</v>
       </c>
       <c r="F10">
-        <v>77.97024627930021</v>
+        <v>31.65327879244567</v>
       </c>
       <c r="G10">
-        <v>2.002308007713388</v>
+        <v>41.26281081736548</v>
       </c>
       <c r="H10">
-        <v>5.301813636990076</v>
+        <v>2.839264103485546</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.19841604468296</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.55848081411547</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.905821799073609</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.61342451234055</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.454276240908461</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -877,40 +877,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.54606282459688</v>
+        <v>17.03466291079945</v>
       </c>
       <c r="C11">
-        <v>23.7914815401432</v>
+        <v>7.909410692668758</v>
       </c>
       <c r="D11">
-        <v>10.00714935249312</v>
+        <v>4.533101463183519</v>
       </c>
       <c r="E11">
-        <v>30.65656381682124</v>
+        <v>6.822175492029073</v>
       </c>
       <c r="F11">
-        <v>71.92397286223122</v>
+        <v>30.02270593079822</v>
       </c>
       <c r="G11">
-        <v>2.00067256976988</v>
+        <v>38.75702818976601</v>
       </c>
       <c r="H11">
-        <v>5.548726509222495</v>
+        <v>3.523400830817337</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.64544752814321</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.41482141769366</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.727302326709221</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.10695879722952</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.978424061314503</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -927,40 +927,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.83023954672815</v>
+        <v>17.18370427108654</v>
       </c>
       <c r="C12">
-        <v>23.94464917857163</v>
+        <v>8.189266818028493</v>
       </c>
       <c r="D12">
-        <v>8.410937696553034</v>
+        <v>4.450820185862972</v>
       </c>
       <c r="E12">
-        <v>24.7789013637149</v>
+        <v>6.39756071039896</v>
       </c>
       <c r="F12">
-        <v>65.63274726239131</v>
+        <v>28.49981311100047</v>
       </c>
       <c r="G12">
-        <v>2.003153226811051</v>
+        <v>36.42429589392698</v>
       </c>
       <c r="H12">
-        <v>6.141542051952365</v>
+        <v>4.694251594327262</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.17144391047034</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.45038963609268</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.627164230101688</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.30753647328019</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.527851283741581</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -977,40 +977,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.59802890459212</v>
+        <v>17.07445895098845</v>
       </c>
       <c r="C13">
-        <v>23.7380491713224</v>
+        <v>8.362569675739152</v>
       </c>
       <c r="D13">
-        <v>6.824672898864965</v>
+        <v>4.320777977223814</v>
       </c>
       <c r="E13">
-        <v>18.93868569922808</v>
+        <v>6.043742318397285</v>
       </c>
       <c r="F13">
-        <v>58.5983593343778</v>
+        <v>26.95621031826871</v>
       </c>
       <c r="G13">
-        <v>2.008866089255325</v>
+        <v>34.06081452199334</v>
       </c>
       <c r="H13">
-        <v>6.943210947902266</v>
+        <v>6.011652916742624</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.72995020749395</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.56950139799687</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.582263050279278</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.30115490478224</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.066991862293138</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1027,40 +1027,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.20703376896577</v>
+        <v>16.87988185987772</v>
       </c>
       <c r="C14">
-        <v>23.43516162712672</v>
+        <v>8.438298569458652</v>
       </c>
       <c r="D14">
-        <v>5.737507921747926</v>
+        <v>4.206643622258033</v>
       </c>
       <c r="E14">
-        <v>14.98576794687479</v>
+        <v>5.84899576148434</v>
       </c>
       <c r="F14">
-        <v>53.26192911764752</v>
+        <v>25.87157969850933</v>
       </c>
       <c r="G14">
-        <v>2.014159912304824</v>
+        <v>32.39877457910541</v>
       </c>
       <c r="H14">
-        <v>7.609183751723979</v>
+        <v>6.976679369592144</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.43969340818208</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.00261935478401</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.584790392069773</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.203364382628</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.74395361777802</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1077,40 +1077,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.9981681757402</v>
+        <v>16.77637493785333</v>
       </c>
       <c r="C15">
-        <v>23.28073640717917</v>
+        <v>8.433324113045069</v>
       </c>
       <c r="D15">
-        <v>5.474949879199457</v>
+        <v>4.168681616385773</v>
       </c>
       <c r="E15">
-        <v>14.02003574641713</v>
+        <v>5.806267889283668</v>
       </c>
       <c r="F15">
-        <v>51.77905743583818</v>
+        <v>25.60579795509562</v>
       </c>
       <c r="G15">
-        <v>2.016238828439874</v>
+        <v>31.99220057136209</v>
       </c>
       <c r="H15">
-        <v>7.757974649035909</v>
+        <v>7.207019582353172</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.37646816901481</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.88231075155671</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.587970026686676</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.1346034099927</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.66145657072157</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1127,40 +1127,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.88697010877708</v>
+        <v>16.23784104417389</v>
       </c>
       <c r="C16">
-        <v>22.48659249021285</v>
+        <v>8.194957561659951</v>
       </c>
       <c r="D16">
-        <v>5.452525231143754</v>
+        <v>4.077629634522183</v>
       </c>
       <c r="E16">
-        <v>13.53167919457164</v>
+        <v>5.770141749272704</v>
       </c>
       <c r="F16">
-        <v>50.30542491275401</v>
+        <v>25.61647062119166</v>
       </c>
       <c r="G16">
-        <v>2.024362094369057</v>
+        <v>32.02039690608884</v>
       </c>
       <c r="H16">
-        <v>7.4111328482205</v>
+        <v>7.059215143317187</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.44834329944642</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.03841489063852</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.562821099129176</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.69781194330178</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.615723886521653</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1177,40 +1177,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.22872033772455</v>
+        <v>15.9385786626722</v>
       </c>
       <c r="C17">
-        <v>22.02782539548715</v>
+        <v>7.965838328586629</v>
       </c>
       <c r="D17">
-        <v>6.007293657698028</v>
+        <v>4.069912409129359</v>
       </c>
       <c r="E17">
-        <v>15.30179769351107</v>
+        <v>5.835719250074592</v>
       </c>
       <c r="F17">
-        <v>52.13549503827236</v>
+        <v>26.2044593381743</v>
       </c>
       <c r="G17">
-        <v>2.027905484637789</v>
+        <v>32.93259352822059</v>
       </c>
       <c r="H17">
-        <v>6.726754454898491</v>
+        <v>6.4130770664218</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.6564399088733</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.453809100753</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.536756770117194</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.40961455579998</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.751819852292315</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1227,40 +1227,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.90624943499985</v>
+        <v>15.79205675693214</v>
       </c>
       <c r="C18">
-        <v>21.82460530203911</v>
+        <v>7.723786438530449</v>
       </c>
       <c r="D18">
-        <v>7.18039733184535</v>
+        <v>4.133021234151022</v>
       </c>
       <c r="E18">
-        <v>19.63813053720812</v>
+        <v>6.055349588442717</v>
       </c>
       <c r="F18">
-        <v>57.05377915721479</v>
+        <v>27.36375813755003</v>
       </c>
       <c r="G18">
-        <v>2.027519739105055</v>
+        <v>34.71886864612912</v>
       </c>
       <c r="H18">
-        <v>5.782303351715262</v>
+        <v>5.317936040439876</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.01026162547257</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.15808004244545</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.541563166865877</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.22354720453932</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.075739979473928</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1277,40 +1277,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.90155473253193</v>
+        <v>15.7802317465559</v>
       </c>
       <c r="C19">
-        <v>21.86625813692876</v>
+        <v>7.496543904045444</v>
       </c>
       <c r="D19">
-        <v>8.814211965638959</v>
+        <v>4.246574070521728</v>
       </c>
       <c r="E19">
-        <v>25.88506888895865</v>
+        <v>6.458453306233318</v>
       </c>
       <c r="F19">
-        <v>64.06976265189496</v>
+        <v>28.91382806154399</v>
       </c>
       <c r="G19">
-        <v>2.023317261136394</v>
+        <v>37.0985281837162</v>
       </c>
       <c r="H19">
-        <v>4.999814618076396</v>
+        <v>4.096395108887572</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.46532242789947</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.07405504923958</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.620933961358085</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.1378036647913</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.544734592439132</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1327,40 +1327,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.81252933822258</v>
+        <v>16.18442887020872</v>
       </c>
       <c r="C20">
-        <v>22.61352999365151</v>
+        <v>7.328513578491409</v>
       </c>
       <c r="D20">
-        <v>11.56709906552241</v>
+        <v>4.493213741223263</v>
       </c>
       <c r="E20">
-        <v>36.39025605721771</v>
+        <v>7.296258113205539</v>
       </c>
       <c r="F20">
-        <v>76.41409995451855</v>
+        <v>31.47076670744796</v>
       </c>
       <c r="G20">
-        <v>2.008282526736644</v>
+        <v>40.99719227961923</v>
       </c>
       <c r="H20">
-        <v>5.103644911994182</v>
+        <v>2.944206536227163</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.18306225335668</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.53401825380146</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.88644064301378</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.33949870848997</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.374774060201046</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1377,40 +1377,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.98078148417397</v>
+        <v>17.19339268536471</v>
       </c>
       <c r="C21">
-        <v>24.19705347449057</v>
+        <v>7.675094051510034</v>
       </c>
       <c r="D21">
-        <v>12.46521112350883</v>
+        <v>4.716220850810917</v>
       </c>
       <c r="E21">
-        <v>39.80513902416875</v>
+        <v>7.58862514267191</v>
       </c>
       <c r="F21">
-        <v>82.35560900991608</v>
+        <v>32.32683630973685</v>
       </c>
       <c r="G21">
-        <v>1.989179157947559</v>
+        <v>42.2650677013775</v>
       </c>
       <c r="H21">
-        <v>5.769142880485959</v>
+        <v>2.597774530425203</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.32672359068395</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.80744520105378</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.984240926343857</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.12169316801922</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.705062759628508</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1427,40 +1427,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.35181736984947</v>
+        <v>17.82026792756953</v>
       </c>
       <c r="C22">
-        <v>25.19507825081201</v>
+        <v>7.906808185138907</v>
       </c>
       <c r="D22">
-        <v>12.92569902534255</v>
+        <v>4.84911170968028</v>
       </c>
       <c r="E22">
-        <v>41.53827728325149</v>
+        <v>7.735726288158483</v>
       </c>
       <c r="F22">
-        <v>85.67494059192747</v>
+        <v>32.77923888732263</v>
       </c>
       <c r="G22">
-        <v>1.97704575695075</v>
+        <v>42.93108427587725</v>
       </c>
       <c r="H22">
-        <v>6.177029331729654</v>
+        <v>2.38867410706199</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.39167522654647</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.92491151498069</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.032259751895056</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.6138459251333</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.879656538857756</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1477,40 +1477,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.62264607286672</v>
+        <v>17.48819854764229</v>
       </c>
       <c r="C23">
-        <v>24.66413285925804</v>
+        <v>7.783848734544178</v>
       </c>
       <c r="D23">
-        <v>12.67999822179903</v>
+        <v>4.778572483241211</v>
       </c>
       <c r="E23">
-        <v>40.61558036066554</v>
+        <v>7.657496046790967</v>
       </c>
       <c r="F23">
-        <v>83.90657479695024</v>
+        <v>32.53707123651547</v>
       </c>
       <c r="G23">
-        <v>1.983543030701546</v>
+        <v>42.57446587435918</v>
       </c>
       <c r="H23">
-        <v>5.958854141076635</v>
+        <v>2.499945145495821</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.35650960784429</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.86135052033183</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.006698301377481</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.3530657196486</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.786886214512292</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1527,40 +1527,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.80004714198831</v>
+        <v>16.17518763773635</v>
       </c>
       <c r="C24">
-        <v>22.61202480973971</v>
+        <v>7.302510078851402</v>
       </c>
       <c r="D24">
-        <v>11.74620879957119</v>
+        <v>4.502975283454851</v>
       </c>
       <c r="E24">
-        <v>37.06388077398027</v>
+        <v>7.355083686443075</v>
       </c>
       <c r="F24">
-        <v>77.12769560712599</v>
+        <v>31.63574361808225</v>
       </c>
       <c r="G24">
-        <v>2.007754736330273</v>
+        <v>41.24942626401924</v>
       </c>
       <c r="H24">
-        <v>5.140833161081212</v>
+        <v>2.928818624847668</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.23411928999113</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.63933876651797</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.908384120025908</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.32367808225213</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.426573075666864</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1577,40 +1577,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.60071365192352</v>
+        <v>14.69540054807386</v>
       </c>
       <c r="C25">
-        <v>20.29112749639399</v>
+        <v>6.749799246263108</v>
       </c>
       <c r="D25">
-        <v>10.72306559985791</v>
+        <v>4.188190363896424</v>
       </c>
       <c r="E25">
-        <v>33.07539001948658</v>
+        <v>7.0160829508854</v>
       </c>
       <c r="F25">
-        <v>69.58467979162481</v>
+        <v>30.69874092736322</v>
       </c>
       <c r="G25">
-        <v>2.033443002007214</v>
+        <v>39.87668074330681</v>
       </c>
       <c r="H25">
-        <v>4.263798859323941</v>
+        <v>3.408605331343533</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.12399557801251</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.43773613225504</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.798944176778493</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.12313473832127</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.019717813673934</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.54709974267697</v>
+        <v>13.35850900037958</v>
       </c>
       <c r="C2">
-        <v>6.314146918713713</v>
+        <v>6.541614164635558</v>
       </c>
       <c r="D2">
-        <v>3.942075114654553</v>
+        <v>4.274919132788935</v>
       </c>
       <c r="E2">
-        <v>6.755857619866471</v>
+        <v>6.742614689425684</v>
       </c>
       <c r="F2">
-        <v>30.04037933696119</v>
+        <v>28.04020092409891</v>
       </c>
       <c r="G2">
-        <v>38.91621182352387</v>
+        <v>35.52824339310835</v>
       </c>
       <c r="H2">
-        <v>3.777892660849062</v>
+        <v>3.501345231629664</v>
       </c>
       <c r="J2">
-        <v>13.06054131139027</v>
+        <v>12.30068785405694</v>
       </c>
       <c r="K2">
-        <v>21.31968121917402</v>
+        <v>19.551236361004</v>
       </c>
       <c r="L2">
-        <v>5.715269590898211</v>
+        <v>15.1328285770132</v>
       </c>
       <c r="M2">
-        <v>11.16061223456801</v>
+        <v>13.82370235546336</v>
       </c>
       <c r="N2">
-        <v>6.705636065475505</v>
+        <v>5.605032392722901</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.3801797211615</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.072199085956902</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.71533305148697</v>
+        <v>12.47973110321896</v>
       </c>
       <c r="C3">
-        <v>6.00126565964232</v>
+        <v>6.117718831343712</v>
       </c>
       <c r="D3">
-        <v>3.766864689019111</v>
+        <v>4.081764610785935</v>
       </c>
       <c r="E3">
-        <v>6.573162568667697</v>
+        <v>6.577231339908981</v>
       </c>
       <c r="F3">
-        <v>29.6144930922619</v>
+        <v>27.75259824836524</v>
       </c>
       <c r="G3">
-        <v>38.29744678025261</v>
+        <v>35.22883920628706</v>
       </c>
       <c r="H3">
-        <v>4.038738876163019</v>
+        <v>3.735589241488916</v>
       </c>
       <c r="J3">
-        <v>13.02792708849563</v>
+        <v>12.25947773876876</v>
       </c>
       <c r="K3">
-        <v>21.25751191497488</v>
+        <v>19.5833859670487</v>
       </c>
       <c r="L3">
-        <v>5.656553904475721</v>
+        <v>15.21906263288072</v>
       </c>
       <c r="M3">
-        <v>10.45894366041986</v>
+        <v>13.81600874533259</v>
       </c>
       <c r="N3">
-        <v>6.484463046517082</v>
+        <v>5.556460195385488</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.66986603758755</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.847727080200364</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.17868700645685</v>
+        <v>11.93833732430365</v>
       </c>
       <c r="C4">
-        <v>5.800616644023948</v>
+        <v>5.844080911208809</v>
       </c>
       <c r="D4">
-        <v>3.655369680183485</v>
+        <v>3.959198144724331</v>
       </c>
       <c r="E4">
-        <v>6.457984621404178</v>
+        <v>6.473060321691245</v>
       </c>
       <c r="F4">
-        <v>29.36318737143544</v>
+        <v>27.58497132608168</v>
       </c>
       <c r="G4">
-        <v>37.9336017990773</v>
+        <v>35.0644533853628</v>
       </c>
       <c r="H4">
-        <v>4.204297181135205</v>
+        <v>3.884384397426411</v>
       </c>
       <c r="J4">
-        <v>13.01282307414971</v>
+        <v>12.23627761738586</v>
       </c>
       <c r="K4">
-        <v>21.22776277200052</v>
+        <v>19.60958997603517</v>
       </c>
       <c r="L4">
-        <v>5.61948842184915</v>
+        <v>15.27305762017425</v>
       </c>
       <c r="M4">
-        <v>10.00371764795738</v>
+        <v>13.83141684889139</v>
       </c>
       <c r="N4">
-        <v>6.344859415062411</v>
+        <v>5.5256905909313</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.2090895017312</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.706594543662048</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.95357802100971</v>
+        <v>11.7109439969452</v>
       </c>
       <c r="C5">
-        <v>5.716737077658332</v>
+        <v>5.729240882624664</v>
       </c>
       <c r="D5">
-        <v>3.60899302774706</v>
+        <v>3.908313637953852</v>
       </c>
       <c r="E5">
-        <v>6.410315621738614</v>
+        <v>6.42996986723094</v>
       </c>
       <c r="F5">
-        <v>29.2633655418075</v>
+        <v>27.51889298665552</v>
       </c>
       <c r="G5">
-        <v>37.78940311690961</v>
+        <v>35.00221950140748</v>
       </c>
       <c r="H5">
-        <v>4.273145968733564</v>
+        <v>3.94628929795941</v>
       </c>
       <c r="J5">
-        <v>13.00787541893621</v>
+        <v>12.22734127122103</v>
       </c>
       <c r="K5">
-        <v>21.21770194010508</v>
+        <v>19.62183961249867</v>
       </c>
       <c r="L5">
-        <v>5.604125995985633</v>
+        <v>15.29532471555623</v>
       </c>
       <c r="M5">
-        <v>9.812075878749024</v>
+        <v>13.84266923653347</v>
       </c>
       <c r="N5">
-        <v>6.287065043526671</v>
+        <v>5.512910581524512</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.01514141324632</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.648312074146856</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.91581455147016</v>
+        <v>11.67276091676747</v>
       </c>
       <c r="C6">
-        <v>5.702682453190258</v>
+        <v>5.709971770631915</v>
       </c>
       <c r="D6">
-        <v>3.601236748059891</v>
+        <v>3.899809613717006</v>
       </c>
       <c r="E6">
-        <v>6.402356636650103</v>
+        <v>6.422776707267596</v>
       </c>
       <c r="F6">
-        <v>29.24694708454945</v>
+        <v>27.50805473345432</v>
       </c>
       <c r="G6">
-        <v>37.76570553167817</v>
+        <v>34.99216863600101</v>
       </c>
       <c r="H6">
-        <v>4.284662470814403</v>
+        <v>3.956645825699533</v>
       </c>
       <c r="J6">
-        <v>13.00712589937913</v>
+        <v>12.22588835614323</v>
       </c>
       <c r="K6">
-        <v>21.21615425182327</v>
+        <v>19.62396700101778</v>
       </c>
       <c r="L6">
-        <v>5.601559413777155</v>
+        <v>15.29903809196716</v>
       </c>
       <c r="M6">
-        <v>9.779883690952133</v>
+        <v>13.84483519080701</v>
       </c>
       <c r="N6">
-        <v>6.277415295873754</v>
+        <v>5.510773814033146</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.982564115919374</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.638589724466732</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.17567695273143</v>
+        <v>11.93726873238164</v>
       </c>
       <c r="C7">
-        <v>5.799493921143735</v>
+        <v>5.834721012313061</v>
       </c>
       <c r="D7">
-        <v>3.654747978722539</v>
+        <v>3.965062280390223</v>
       </c>
       <c r="E7">
-        <v>6.4573446778773</v>
+        <v>6.474134364560174</v>
       </c>
       <c r="F7">
-        <v>29.36183063472124</v>
+        <v>27.55982691096803</v>
       </c>
       <c r="G7">
-        <v>37.93164057215242</v>
+        <v>35.11369749775747</v>
       </c>
       <c r="H7">
-        <v>4.205220069912869</v>
+        <v>3.88600357441613</v>
       </c>
       <c r="J7">
-        <v>13.01275149980785</v>
+        <v>12.19232549101497</v>
       </c>
       <c r="K7">
-        <v>21.22761881263988</v>
+        <v>19.59561766942348</v>
       </c>
       <c r="L7">
-        <v>5.61928228703473</v>
+        <v>15.26070982218687</v>
       </c>
       <c r="M7">
-        <v>10.00115792555421</v>
+        <v>13.82275701047922</v>
       </c>
       <c r="N7">
-        <v>6.34408357138094</v>
+        <v>5.524921203687421</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.20446857358469</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.705591217843645</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.26574176464058</v>
+        <v>13.06697260910673</v>
       </c>
       <c r="C8">
-        <v>6.208055097806784</v>
+        <v>6.37399469867351</v>
       </c>
       <c r="D8">
-        <v>3.882498758460315</v>
+        <v>4.229874744132395</v>
       </c>
       <c r="E8">
-        <v>6.693499867339094</v>
+        <v>6.691566260652972</v>
       </c>
       <c r="F8">
-        <v>29.89143527452506</v>
+        <v>27.86050924074585</v>
       </c>
       <c r="G8">
-        <v>38.69954391274364</v>
+        <v>35.58665512836546</v>
       </c>
       <c r="H8">
-        <v>3.866727609592196</v>
+        <v>3.583528891490526</v>
       </c>
       <c r="J8">
-        <v>13.04825646022982</v>
+        <v>12.14329984810735</v>
       </c>
       <c r="K8">
-        <v>21.29646360591656</v>
+        <v>19.51487630686737</v>
       </c>
       <c r="L8">
-        <v>5.69523295261534</v>
+        <v>15.12330677059168</v>
       </c>
       <c r="M8">
-        <v>10.92373920311925</v>
+        <v>13.78579126864331</v>
       </c>
       <c r="N8">
-        <v>6.630193967241514</v>
+        <v>5.586608389693795</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.13415553913881</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.994834167947819</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.1944753807414</v>
+        <v>15.0810892144096</v>
       </c>
       <c r="C9">
-        <v>6.940457779380573</v>
+        <v>7.35349746849607</v>
       </c>
       <c r="D9">
-        <v>4.296511391470168</v>
+        <v>4.691208328499889</v>
       </c>
       <c r="E9">
-        <v>7.131957356974689</v>
+        <v>7.090214280615924</v>
       </c>
       <c r="F9">
-        <v>31.00955618043126</v>
+        <v>28.61120138158519</v>
       </c>
       <c r="G9">
-        <v>40.33139506818705</v>
+        <v>36.48890552242025</v>
       </c>
       <c r="H9">
-        <v>3.244579920259121</v>
+        <v>3.025978728227118</v>
       </c>
       <c r="J9">
-        <v>13.15827197703336</v>
+        <v>12.22215345549868</v>
       </c>
       <c r="K9">
-        <v>21.50077932253189</v>
+        <v>19.46180656545102</v>
       </c>
       <c r="L9">
-        <v>5.836278771045402</v>
+        <v>14.90829510245485</v>
       </c>
       <c r="M9">
-        <v>12.53968579566027</v>
+        <v>13.90836348999276</v>
       </c>
       <c r="N9">
-        <v>7.159108497454233</v>
+        <v>5.702404562265967</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.76892246922644</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.534202249918278</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.53129321111028</v>
+        <v>16.40692440392892</v>
       </c>
       <c r="C10">
-        <v>7.460973093141031</v>
+        <v>7.988585766548943</v>
       </c>
       <c r="D10">
-        <v>4.562371903879074</v>
+        <v>5.017158362695739</v>
       </c>
       <c r="E10">
-        <v>7.358589822077299</v>
+        <v>7.301024375801021</v>
       </c>
       <c r="F10">
-        <v>31.65327879244567</v>
+        <v>28.88870401263094</v>
       </c>
       <c r="G10">
-        <v>41.26281081736548</v>
+        <v>37.25303184366469</v>
       </c>
       <c r="H10">
-        <v>2.839264103485546</v>
+        <v>2.669288018378365</v>
       </c>
       <c r="J10">
-        <v>13.19841604468296</v>
+        <v>11.99988332602891</v>
       </c>
       <c r="K10">
-        <v>21.55848081411547</v>
+        <v>19.27413774731789</v>
       </c>
       <c r="L10">
-        <v>5.905821799073609</v>
+        <v>14.61673162308903</v>
       </c>
       <c r="M10">
-        <v>13.61342451234055</v>
+        <v>13.95837473575804</v>
       </c>
       <c r="N10">
-        <v>7.454276240908461</v>
+        <v>5.756060298259047</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.84303871819689</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.834221274305575</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.03466291079945</v>
+        <v>16.93520190175648</v>
       </c>
       <c r="C11">
-        <v>7.909410692668758</v>
+        <v>8.344476063329344</v>
       </c>
       <c r="D11">
-        <v>4.533101463183519</v>
+        <v>5.026710193749039</v>
       </c>
       <c r="E11">
-        <v>6.822175492029073</v>
+        <v>6.790952115946077</v>
       </c>
       <c r="F11">
-        <v>30.02270593079822</v>
+        <v>27.17506691739037</v>
       </c>
       <c r="G11">
-        <v>38.75702818976601</v>
+        <v>35.63471614606873</v>
       </c>
       <c r="H11">
-        <v>3.523400830817337</v>
+        <v>3.402415460901073</v>
       </c>
       <c r="J11">
-        <v>12.64544752814321</v>
+        <v>11.094617998165</v>
       </c>
       <c r="K11">
-        <v>20.41482141769366</v>
+        <v>18.1610904773107</v>
       </c>
       <c r="L11">
-        <v>5.727302326709221</v>
+        <v>13.72965983144759</v>
       </c>
       <c r="M11">
-        <v>14.10695879722952</v>
+        <v>13.18566802295622</v>
       </c>
       <c r="N11">
-        <v>6.978424061314503</v>
+        <v>5.611092999642906</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.30217648721749</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.329516461450241</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.18370427108654</v>
+        <v>17.1084215146758</v>
       </c>
       <c r="C12">
-        <v>8.189266818028493</v>
+        <v>8.539064275549542</v>
       </c>
       <c r="D12">
-        <v>4.450820185862972</v>
+        <v>4.944518494613235</v>
       </c>
       <c r="E12">
-        <v>6.39756071039896</v>
+        <v>6.381940470969508</v>
       </c>
       <c r="F12">
-        <v>28.49981311100047</v>
+        <v>25.74886129413742</v>
       </c>
       <c r="G12">
-        <v>36.42429589392698</v>
+        <v>33.89660655804247</v>
       </c>
       <c r="H12">
-        <v>4.694251594327262</v>
+        <v>4.604720196347661</v>
       </c>
       <c r="J12">
-        <v>12.17144391047034</v>
+        <v>10.56556674547429</v>
       </c>
       <c r="K12">
-        <v>19.45038963609268</v>
+        <v>17.33430194871777</v>
       </c>
       <c r="L12">
-        <v>5.627164230101688</v>
+        <v>13.1151148269226</v>
       </c>
       <c r="M12">
-        <v>14.30753647328019</v>
+        <v>12.55944588564317</v>
       </c>
       <c r="N12">
-        <v>6.527851283741581</v>
+        <v>5.543389958750558</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.47846292984434</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.853522951043882</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.07445895098845</v>
+        <v>17.0217980094511</v>
       </c>
       <c r="C13">
-        <v>8.362569675739152</v>
+        <v>8.643265496900868</v>
       </c>
       <c r="D13">
-        <v>4.320777977223814</v>
+        <v>4.77169505407926</v>
       </c>
       <c r="E13">
-        <v>6.043742318397285</v>
+        <v>6.037283495965213</v>
       </c>
       <c r="F13">
-        <v>26.95621031826871</v>
+        <v>24.49423821300958</v>
       </c>
       <c r="G13">
-        <v>34.06081452199334</v>
+        <v>31.82483459247521</v>
       </c>
       <c r="H13">
-        <v>6.011652916742624</v>
+        <v>5.935843528224083</v>
       </c>
       <c r="J13">
-        <v>11.72995020749395</v>
+        <v>10.32244702482344</v>
       </c>
       <c r="K13">
-        <v>18.56950139799687</v>
+        <v>16.70016021558094</v>
       </c>
       <c r="L13">
-        <v>5.582263050279278</v>
+        <v>12.67010872194242</v>
       </c>
       <c r="M13">
-        <v>14.30115490478224</v>
+        <v>12.03809308754142</v>
       </c>
       <c r="N13">
-        <v>6.066991862293138</v>
+        <v>5.529632847082995</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.45711672242321</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.369051841131737</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.87988185987772</v>
+        <v>16.84264696743469</v>
       </c>
       <c r="C14">
-        <v>8.438298569458652</v>
+        <v>8.676854494140807</v>
       </c>
       <c r="D14">
-        <v>4.206643622258033</v>
+        <v>4.609016713272205</v>
       </c>
       <c r="E14">
-        <v>5.84899576148434</v>
+        <v>5.848633630558798</v>
       </c>
       <c r="F14">
-        <v>25.87157969850933</v>
+        <v>23.69018810012638</v>
       </c>
       <c r="G14">
-        <v>32.39877457910541</v>
+        <v>30.24589629404679</v>
       </c>
       <c r="H14">
-        <v>6.976679369592144</v>
+        <v>6.905096095628475</v>
       </c>
       <c r="J14">
-        <v>11.43969340818208</v>
+        <v>10.25746922759354</v>
       </c>
       <c r="K14">
-        <v>18.00261935478401</v>
+        <v>16.34370337298206</v>
       </c>
       <c r="L14">
-        <v>5.584790392069773</v>
+        <v>12.42811291019038</v>
       </c>
       <c r="M14">
-        <v>14.203364382628</v>
+        <v>11.7272211969345</v>
       </c>
       <c r="N14">
-        <v>5.74395361777802</v>
+        <v>5.551264465477815</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.35258411417776</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.030661871791232</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.77637493785333</v>
+        <v>16.74278884975007</v>
       </c>
       <c r="C15">
-        <v>8.433324113045069</v>
+        <v>8.664645143754651</v>
       </c>
       <c r="D15">
-        <v>4.168681616385773</v>
+        <v>4.551375024687738</v>
       </c>
       <c r="E15">
-        <v>5.806267889283668</v>
+        <v>5.807994791500533</v>
       </c>
       <c r="F15">
-        <v>25.60579795509562</v>
+        <v>23.52522247277261</v>
       </c>
       <c r="G15">
-        <v>31.99220057136209</v>
+        <v>29.81252160943396</v>
       </c>
       <c r="H15">
-        <v>7.207019582353172</v>
+        <v>7.134837562397429</v>
       </c>
       <c r="J15">
-        <v>11.37646816901481</v>
+        <v>10.28449698252089</v>
       </c>
       <c r="K15">
-        <v>17.88231075155671</v>
+        <v>16.29017640282402</v>
       </c>
       <c r="L15">
-        <v>5.587970026686676</v>
+        <v>12.39430311022061</v>
       </c>
       <c r="M15">
-        <v>14.1346034099927</v>
+        <v>11.67282247183949</v>
       </c>
       <c r="N15">
-        <v>5.66145657072157</v>
+        <v>5.558626383382547</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.28392637254274</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.945017540315273</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.23784104417389</v>
+        <v>16.2036241355161</v>
       </c>
       <c r="C16">
-        <v>8.194957561659951</v>
+        <v>8.448943416086772</v>
       </c>
       <c r="D16">
-        <v>4.077629634522183</v>
+        <v>4.395548819611586</v>
       </c>
       <c r="E16">
-        <v>5.770141749272704</v>
+        <v>5.77686511480148</v>
       </c>
       <c r="F16">
-        <v>25.61647062119166</v>
+        <v>23.80934939435611</v>
       </c>
       <c r="G16">
-        <v>32.02039690608884</v>
+        <v>29.46940632736627</v>
       </c>
       <c r="H16">
-        <v>7.059215143317187</v>
+        <v>6.971095924378084</v>
       </c>
       <c r="J16">
-        <v>11.44834329944642</v>
+        <v>10.67462593130778</v>
       </c>
       <c r="K16">
-        <v>18.03841489063852</v>
+        <v>16.58324586700848</v>
       </c>
       <c r="L16">
-        <v>5.562821099129176</v>
+        <v>12.62181287444096</v>
       </c>
       <c r="M16">
-        <v>13.69781194330178</v>
+        <v>11.8558247436656</v>
       </c>
       <c r="N16">
-        <v>5.615723886521653</v>
+        <v>5.533034939118898</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.86245997747591</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.904809665557323</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.9385786626722</v>
+        <v>15.88254331399822</v>
       </c>
       <c r="C17">
-        <v>7.965838328586629</v>
+        <v>8.250124731452143</v>
       </c>
       <c r="D17">
-        <v>4.069912409129359</v>
+        <v>4.371890253910006</v>
       </c>
       <c r="E17">
-        <v>5.835719250074592</v>
+        <v>5.839919074693189</v>
       </c>
       <c r="F17">
-        <v>26.2044593381743</v>
+        <v>24.43438143192243</v>
       </c>
       <c r="G17">
-        <v>32.93259352822059</v>
+        <v>30.10942662547493</v>
       </c>
       <c r="H17">
-        <v>6.4130770664218</v>
+        <v>6.307542905282551</v>
       </c>
       <c r="J17">
-        <v>11.6564399088733</v>
+        <v>10.99167161240952</v>
       </c>
       <c r="K17">
-        <v>18.453809100753</v>
+        <v>16.98723323250533</v>
       </c>
       <c r="L17">
-        <v>5.536756770117194</v>
+        <v>12.93109345451394</v>
       </c>
       <c r="M17">
-        <v>13.40961455579998</v>
+        <v>12.14405212677182</v>
       </c>
       <c r="N17">
-        <v>5.751819852292315</v>
+        <v>5.497893117283304</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.58766471711449</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.052637639076259</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.79205675693214</v>
+        <v>15.71842402621925</v>
       </c>
       <c r="C18">
-        <v>7.723786438530449</v>
+        <v>8.060419645190645</v>
       </c>
       <c r="D18">
-        <v>4.133021234151022</v>
+        <v>4.447718292535816</v>
       </c>
       <c r="E18">
-        <v>6.055349588442717</v>
+        <v>6.047560735611744</v>
       </c>
       <c r="F18">
-        <v>27.36375813755003</v>
+        <v>25.47729694908281</v>
       </c>
       <c r="G18">
-        <v>34.71886864612912</v>
+        <v>31.55924574522019</v>
       </c>
       <c r="H18">
-        <v>5.317936040439876</v>
+        <v>5.18790095432079</v>
       </c>
       <c r="J18">
-        <v>12.01026162547257</v>
+        <v>11.34675460229395</v>
       </c>
       <c r="K18">
-        <v>19.15808004244545</v>
+        <v>17.57414930908874</v>
       </c>
       <c r="L18">
-        <v>5.541563166865877</v>
+        <v>13.38217696940367</v>
       </c>
       <c r="M18">
-        <v>13.22354720453932</v>
+        <v>12.57861948441262</v>
       </c>
       <c r="N18">
-        <v>6.075739979473928</v>
+        <v>5.483281832093724</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.41790599707718</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.39515976660125</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.7802317465559</v>
+        <v>15.69484587907522</v>
       </c>
       <c r="C19">
-        <v>7.496543904045444</v>
+        <v>7.902068468495918</v>
       </c>
       <c r="D19">
-        <v>4.246574070521728</v>
+        <v>4.591284591643739</v>
       </c>
       <c r="E19">
-        <v>6.458453306233318</v>
+        <v>6.431346562947124</v>
       </c>
       <c r="F19">
-        <v>28.91382806154399</v>
+        <v>26.81118827736967</v>
       </c>
       <c r="G19">
-        <v>37.0985281837162</v>
+        <v>33.53126987389558</v>
       </c>
       <c r="H19">
-        <v>4.096395108887572</v>
+        <v>3.933280530406807</v>
       </c>
       <c r="J19">
-        <v>12.46532242789947</v>
+        <v>11.7399656607833</v>
       </c>
       <c r="K19">
-        <v>20.07405504923958</v>
+        <v>18.29941795033353</v>
       </c>
       <c r="L19">
-        <v>5.620933961358085</v>
+        <v>13.93999062694203</v>
       </c>
       <c r="M19">
-        <v>13.1378036647913</v>
+        <v>13.12345850157928</v>
       </c>
       <c r="N19">
-        <v>6.544734592439132</v>
+        <v>5.533167112178647</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.35038895148279</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.887446473928762</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.18442887020872</v>
+        <v>16.06461828443104</v>
       </c>
       <c r="C20">
-        <v>7.328513578491409</v>
+        <v>7.849058064130779</v>
       </c>
       <c r="D20">
-        <v>4.493213741223263</v>
+        <v>4.91263869753258</v>
       </c>
       <c r="E20">
-        <v>7.296258113205539</v>
+        <v>7.237378902396609</v>
       </c>
       <c r="F20">
-        <v>31.47076670744796</v>
+        <v>28.88327835967022</v>
       </c>
       <c r="G20">
-        <v>40.99719227961923</v>
+        <v>36.85713872520395</v>
       </c>
       <c r="H20">
-        <v>2.944206536227163</v>
+        <v>2.759258016634373</v>
       </c>
       <c r="J20">
-        <v>13.18306225335668</v>
+        <v>12.20064156720916</v>
       </c>
       <c r="K20">
-        <v>21.53401825380146</v>
+        <v>19.36356958350122</v>
       </c>
       <c r="L20">
-        <v>5.88644064301378</v>
+        <v>14.72387848096003</v>
       </c>
       <c r="M20">
-        <v>13.33949870848997</v>
+        <v>13.97218819037577</v>
       </c>
       <c r="N20">
-        <v>7.374774060201046</v>
+        <v>5.742743978534938</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.57461713127683</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.753870418836023</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.19339268536471</v>
+        <v>17.06492375399456</v>
       </c>
       <c r="C21">
-        <v>7.675094051510034</v>
+        <v>8.178839799722644</v>
       </c>
       <c r="D21">
-        <v>4.716220850810917</v>
+        <v>5.289561881210394</v>
       </c>
       <c r="E21">
-        <v>7.58862514267191</v>
+        <v>7.544152808073301</v>
       </c>
       <c r="F21">
-        <v>32.32683630973685</v>
+        <v>28.98958593191649</v>
       </c>
       <c r="G21">
-        <v>42.2650677013775</v>
+        <v>38.85426515081485</v>
       </c>
       <c r="H21">
-        <v>2.597774530425203</v>
+        <v>2.461795533009474</v>
       </c>
       <c r="J21">
-        <v>13.32672359068395</v>
+        <v>11.3819408391676</v>
       </c>
       <c r="K21">
-        <v>21.80744520105378</v>
+        <v>19.14726089334947</v>
       </c>
       <c r="L21">
-        <v>5.984240926343857</v>
+        <v>14.44631138624634</v>
       </c>
       <c r="M21">
-        <v>14.12169316801922</v>
+        <v>13.9715390386206</v>
       </c>
       <c r="N21">
-        <v>7.705062759628508</v>
+        <v>5.811654250776352</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.33151411072339</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.090204021031385</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.82026792756953</v>
+        <v>17.68891098979384</v>
       </c>
       <c r="C22">
-        <v>7.906808185138907</v>
+        <v>8.388129136728507</v>
       </c>
       <c r="D22">
-        <v>4.84911170968028</v>
+        <v>5.525557776427577</v>
       </c>
       <c r="E22">
-        <v>7.735726288158483</v>
+        <v>7.705416016403375</v>
       </c>
       <c r="F22">
-        <v>32.77923888732263</v>
+        <v>28.94102084677026</v>
       </c>
       <c r="G22">
-        <v>42.93108427587725</v>
+        <v>40.11950845264766</v>
       </c>
       <c r="H22">
-        <v>2.38867410706199</v>
+        <v>2.283755045757526</v>
       </c>
       <c r="J22">
-        <v>13.39167522654647</v>
+        <v>10.815548377377</v>
       </c>
       <c r="K22">
-        <v>21.92491151498069</v>
+        <v>18.93875133659435</v>
       </c>
       <c r="L22">
-        <v>6.032259751895056</v>
+        <v>14.21734064945547</v>
       </c>
       <c r="M22">
-        <v>14.6138459251333</v>
+        <v>13.92675358553493</v>
       </c>
       <c r="N22">
-        <v>7.879656538857756</v>
+        <v>5.84326932530676</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.80481044864093</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.267134365370769</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.48819854764229</v>
+        <v>17.35544771569198</v>
       </c>
       <c r="C23">
-        <v>7.783848734544178</v>
+        <v>8.292372526356594</v>
       </c>
       <c r="D23">
-        <v>4.778572483241211</v>
+        <v>5.386024020145289</v>
       </c>
       <c r="E23">
-        <v>7.657496046790967</v>
+        <v>7.61519804221852</v>
       </c>
       <c r="F23">
-        <v>32.53707123651547</v>
+        <v>29.02412403399448</v>
       </c>
       <c r="G23">
-        <v>42.57446587435918</v>
+        <v>39.308459352058</v>
       </c>
       <c r="H23">
-        <v>2.499945145495821</v>
+        <v>2.377182379829954</v>
       </c>
       <c r="J23">
-        <v>13.35650960784429</v>
+        <v>11.20703034880047</v>
       </c>
       <c r="K23">
-        <v>21.86135052033183</v>
+        <v>19.08444113123502</v>
       </c>
       <c r="L23">
-        <v>6.006698301377481</v>
+        <v>14.36392643394312</v>
       </c>
       <c r="M23">
-        <v>14.3530657196486</v>
+        <v>13.97738087522767</v>
       </c>
       <c r="N23">
-        <v>7.786886214512292</v>
+        <v>5.827607287087051</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.55787579197308</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.173519885784907</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.17518763773635</v>
+        <v>16.05310785064434</v>
       </c>
       <c r="C24">
-        <v>7.302510078851402</v>
+        <v>7.829211995868414</v>
       </c>
       <c r="D24">
-        <v>4.502975283454851</v>
+        <v>4.924627773282833</v>
       </c>
       <c r="E24">
-        <v>7.355083686443075</v>
+        <v>7.294125412755897</v>
       </c>
       <c r="F24">
-        <v>31.63574361808225</v>
+        <v>29.02944871160404</v>
       </c>
       <c r="G24">
-        <v>41.24942626401924</v>
+        <v>37.06163174612691</v>
       </c>
       <c r="H24">
-        <v>2.928818624847668</v>
+        <v>2.743876182638903</v>
       </c>
       <c r="J24">
-        <v>13.23411928999113</v>
+        <v>12.25049305309146</v>
       </c>
       <c r="K24">
-        <v>21.63933876651797</v>
+        <v>19.45039993664165</v>
       </c>
       <c r="L24">
-        <v>5.908384120025908</v>
+        <v>14.79200138707232</v>
       </c>
       <c r="M24">
-        <v>13.32367808225213</v>
+        <v>14.03561342708172</v>
       </c>
       <c r="N24">
-        <v>7.426573075666864</v>
+        <v>5.761031179191678</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.56070517777954</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.808204118361125</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.69540054807386</v>
+        <v>14.5616694852772</v>
       </c>
       <c r="C25">
-        <v>6.749799246263108</v>
+        <v>7.109542502902923</v>
       </c>
       <c r="D25">
-        <v>4.188190363896424</v>
+        <v>4.561998147093054</v>
       </c>
       <c r="E25">
-        <v>7.0160829508854</v>
+        <v>6.982514082258015</v>
       </c>
       <c r="F25">
-        <v>30.69874092736322</v>
+        <v>28.43292763748621</v>
       </c>
       <c r="G25">
-        <v>39.87668074330681</v>
+        <v>36.15678271228877</v>
       </c>
       <c r="H25">
-        <v>3.408605331343533</v>
+        <v>3.17187499779781</v>
       </c>
       <c r="J25">
-        <v>13.12399557801251</v>
+        <v>12.25884318197926</v>
       </c>
       <c r="K25">
-        <v>21.43773613225504</v>
+        <v>19.48939889574945</v>
       </c>
       <c r="L25">
-        <v>5.798944176778493</v>
+        <v>14.98096766636811</v>
       </c>
       <c r="M25">
-        <v>12.12313473832127</v>
+        <v>13.87142299220944</v>
       </c>
       <c r="N25">
-        <v>7.019717813673934</v>
+        <v>5.672590593385499</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.35006241730274</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.391942106233043</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
